--- a/database.xlsx
+++ b/database.xlsx
@@ -1,33 +1,415 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aviv\PycharmProjects\autoCal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F40B889-08E7-4258-B857-A59330855911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="week23" sheetId="2" r:id="rId2"/>
+    <sheet name="week24" sheetId="3" r:id="rId3"/>
+    <sheet name="week25" sheetId="4" r:id="rId4"/>
+    <sheet name="week26" sheetId="5" r:id="rId5"/>
+    <sheet name="week1" sheetId="6" r:id="rId6"/>
+    <sheet name="week2" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>expect under this</t>
+  </si>
+  <si>
+    <t>2020-01-01 01:01:01</t>
+  </si>
+  <si>
+    <t>לימודים באוניברסיטה</t>
+  </si>
+  <si>
+    <t>2021-05-31 13:00:00</t>
+  </si>
+  <si>
+    <t>2021-05-31 18:00:00</t>
+  </si>
+  <si>
+    <t>תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
+  </si>
+  <si>
+    <t>2021-05-31 18:45:00</t>
+  </si>
+  <si>
+    <t>2021-05-31 19:30:00</t>
+  </si>
+  <si>
+    <t>שיחת מביסט נכנס</t>
+  </si>
+  <si>
+    <t>2021-05-31 20:00:00</t>
+  </si>
+  <si>
+    <t>2021-05-31 21:00:00</t>
+  </si>
+  <si>
+    <t>תחק"ש</t>
+  </si>
+  <si>
+    <t>2021-05-31 20:30:00</t>
+  </si>
+  <si>
+    <t>2021-05-31 21:15:00</t>
+  </si>
+  <si>
+    <t>ברייזר</t>
+  </si>
+  <si>
+    <t>2021-06-01 08:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-01 10:00:00</t>
+  </si>
+  <si>
+    <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
+  </si>
+  <si>
+    <t>2021-06-01 12:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-01 12:30:00</t>
+  </si>
+  <si>
+    <t>קפה מגמה</t>
+  </si>
+  <si>
+    <t>2021-06-01 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-01 16:30:00</t>
+  </si>
+  <si>
+    <t>אימון בריכה</t>
+  </si>
+  <si>
+    <t>2021-06-01 17:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-01 19:00:00</t>
+  </si>
+  <si>
+    <t>ת. מבני נתונים - מדמ"ח - רועי איזנשטדט</t>
+  </si>
+  <si>
+    <t>2021-06-01 19:45:00</t>
+  </si>
+  <si>
+    <t>2021-06-01 21:45:00</t>
+  </si>
+  <si>
+    <t>ערב גיבוש מפקדת</t>
+  </si>
+  <si>
+    <t>מדמ"ח באוניברסיטה</t>
+  </si>
+  <si>
+    <t>2021-06-02 08:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-02 10:00:00</t>
+  </si>
+  <si>
+    <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
+  </si>
+  <si>
+    <t>2021-06-02 12:00:00</t>
+  </si>
+  <si>
+    <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
+  </si>
+  <si>
+    <t>2021-06-02 13:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-02 15:00:00</t>
+  </si>
+  <si>
+    <t>ת. חדוא 2 למדמח - מדמ"ח - ויקטור ניקוליאבסקי</t>
+  </si>
+  <si>
+    <t>2021-06-02 13:30:00</t>
+  </si>
+  <si>
+    <t>הגשת עבודה 3 בחדוא</t>
+  </si>
+  <si>
+    <t>2021-06-02 18:00:00</t>
+  </si>
+  <si>
+    <t>מבוא למחשבים למדעי המחשב - מדמ"ח - אילן שלום</t>
+  </si>
+  <si>
+    <t>2021-06-02 18:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-02 21:30:00</t>
+  </si>
+  <si>
+    <t>דת האסלאם והמזרח התיכון המודרני - סוגיות יסוד - אסף רגב</t>
+  </si>
+  <si>
+    <t>2021-06-03 08:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-03 09:30:00</t>
+  </si>
+  <si>
+    <t>תחקיר סוף השכלה</t>
+  </si>
+  <si>
+    <t>2021-06-03 10:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-03 12:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-03 12:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-03 14:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-03 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-03 17:00:00</t>
+  </si>
+  <si>
+    <t>ת. תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
+  </si>
+  <si>
+    <t>2021-06-03 19:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-03 19:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-03 21:30:00</t>
+  </si>
+  <si>
+    <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - שמעון רגב</t>
+  </si>
+  <si>
+    <t>2021-06-06 08:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-06 18:30:00</t>
+  </si>
+  <si>
+    <t>ללא לימודים</t>
+  </si>
+  <si>
+    <t>2021-06-06 21:30:00</t>
+  </si>
+  <si>
+    <t>סוגיות בלוחמה אווירית - דני עוזיאל</t>
+  </si>
+  <si>
+    <t>2021-06-07 08:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-07 10:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-07 12:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-07 13:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-07 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-07 18:00:00</t>
+  </si>
+  <si>
+    <t>חדוא 2 למדמח - מדמ"ח - ארקדי ליידרמן</t>
+  </si>
+  <si>
+    <t>2021-06-08 08:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-08 10:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-08 12:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-08 13:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-08 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-08 17:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-08 18:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-08 21:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-09 08:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-09 10:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-09 12:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-09 13:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-09 14:00:00</t>
+  </si>
+  <si>
+    <t>ת. מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
+  </si>
+  <si>
+    <t>2021-06-09 16:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-09 18:00:00</t>
+  </si>
+  <si>
+    <t>ת. מבוא למחשבים למדעי המחשב - מדמ"ח - עמית אפרים</t>
+  </si>
+  <si>
+    <t>2021-06-09 19:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-09 21:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-10 16:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-10 18:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-13 11:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-13 13:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-13 14:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-13 18:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-13 18:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-13 21:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-14 08:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-14 10:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-14 12:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-14 13:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-14 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-14 17:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-14 18:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-14 19:30:00</t>
+  </si>
+  <si>
+    <t>2021-06-14 21:30:00</t>
+  </si>
+  <si>
+    <t>יום הולדת לקונפי</t>
+  </si>
+  <si>
+    <t>יום הולדת לאמיתי</t>
+  </si>
+  <si>
+    <t>2021-06-15 08:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-15 10:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-15 12:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-15 13:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-15 15:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-15 17:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from </t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,81 +427,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,49 +747,978 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>write test</t>
-        </is>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.20833333333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.1666666666666657E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.0833333333333329E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.0833333333333329E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4.1666666666666657E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.1041666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.14583333333333329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4.1666666666666657E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A4:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -13,6 +13,7 @@
     <sheet name="week26" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="week1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="week2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="week3" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -61,7 +62,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -119,21 +120,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -144,150 +130,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -307,13 +149,146 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -326,9 +301,57 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -351,84 +374,103 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,9 +856,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="6.6640625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="6.5546875" customWidth="1" style="3" min="2" max="2"/>
-    <col width="41.44140625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="6.6640625" customWidth="1" style="8" min="1" max="1"/>
+    <col width="6.5546875" customWidth="1" style="8" min="2" max="2"/>
+    <col width="41.44140625" customWidth="1" style="8" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -834,44 +876,44 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ת. חדוא 2 למדמח - מדמ"ח - ויקטור ניקוליאבסקי</t>
+          <t>מודלים</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2:00</t>
+          <t>3:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ת. מבוא למחשבים למדעי המחשב - מדמ"ח - עמית אפרים</t>
+          <t>מסע שנת השכלה</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2:00</t>
+          <t>2:30</t>
         </is>
       </c>
     </row>
@@ -2206,860 +2248,848 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="3.44140625" customWidth="1" style="3" min="1" max="8"/>
-    <col width="5.6640625" customWidth="1" style="3" min="9" max="10"/>
-    <col width="22.77734375" customWidth="1" style="3" min="11" max="11"/>
-    <col width="4.6640625" customWidth="1" style="3" min="12" max="12"/>
-    <col width="5.77734375" customWidth="1" style="3" min="13" max="14"/>
-    <col width="21.88671875" customWidth="1" style="3" min="15" max="15"/>
-    <col width="4.88671875" customWidth="1" style="3" min="16" max="16"/>
-    <col width="6" customWidth="1" style="3" min="17" max="17"/>
-    <col width="5.44140625" customWidth="1" style="3" min="18" max="18"/>
-    <col width="22.6640625" customWidth="1" style="3" min="19" max="19"/>
-    <col width="4.6640625" customWidth="1" style="3" min="20" max="20"/>
-    <col width="4.6640625" customWidth="1" style="3" min="21" max="22"/>
-    <col width="11.88671875" customWidth="1" style="3" min="23" max="23"/>
-    <col width="4.6640625" customWidth="1" style="3" min="24" max="26"/>
-    <col width="11.109375" customWidth="1" style="3" min="27" max="27"/>
-    <col width="4.6640625" customWidth="1" style="3" min="28" max="28"/>
+    <col width="3.44140625" customWidth="1" style="8" min="1" max="8"/>
+    <col width="5.6640625" customWidth="1" style="8" min="9" max="10"/>
+    <col width="22.77734375" customWidth="1" style="8" min="11" max="11"/>
+    <col width="4.6640625" customWidth="1" style="8" min="12" max="12"/>
+    <col width="5.77734375" customWidth="1" style="8" min="13" max="14"/>
+    <col width="21.88671875" customWidth="1" style="8" min="15" max="15"/>
+    <col width="4.88671875" customWidth="1" style="8" min="16" max="16"/>
+    <col width="6" customWidth="1" style="8" min="17" max="17"/>
+    <col width="5.44140625" customWidth="1" style="8" min="18" max="18"/>
+    <col width="22.6640625" customWidth="1" style="8" min="19" max="19"/>
+    <col width="4.6640625" customWidth="1" style="8" min="20" max="22"/>
+    <col width="11.88671875" customWidth="1" style="8" min="23" max="23"/>
+    <col width="4.6640625" customWidth="1" style="8" min="24" max="26"/>
+    <col width="11.109375" customWidth="1" style="8" min="27" max="27"/>
+    <col width="4.6640625" customWidth="1" style="8" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="inlineStr">
+      <c r="A1" s="39" t="inlineStr">
         <is>
           <t>יום א</t>
         </is>
       </c>
-      <c r="B1" s="32" t="n"/>
-      <c r="C1" s="32" t="n"/>
-      <c r="D1" s="33" t="n"/>
-      <c r="E1" s="31" t="inlineStr">
+      <c r="B1" s="37" t="n"/>
+      <c r="C1" s="37" t="n"/>
+      <c r="D1" s="38" t="n"/>
+      <c r="E1" s="40" t="inlineStr">
         <is>
           <t>יום ב</t>
         </is>
       </c>
-      <c r="F1" s="32" t="n"/>
-      <c r="G1" s="32" t="n"/>
-      <c r="H1" s="33" t="n"/>
-      <c r="I1" s="27" t="inlineStr">
+      <c r="F1" s="37" t="n"/>
+      <c r="G1" s="37" t="n"/>
+      <c r="H1" s="38" t="n"/>
+      <c r="I1" s="36" t="inlineStr">
         <is>
           <t>יום ג</t>
         </is>
       </c>
-      <c r="J1" s="32" t="n"/>
-      <c r="K1" s="32" t="n"/>
-      <c r="L1" s="33" t="n"/>
-      <c r="M1" s="31" t="inlineStr">
+      <c r="J1" s="37" t="n"/>
+      <c r="K1" s="37" t="n"/>
+      <c r="L1" s="38" t="n"/>
+      <c r="M1" s="40" t="inlineStr">
         <is>
           <t>יום ד</t>
         </is>
       </c>
-      <c r="N1" s="32" t="n"/>
-      <c r="O1" s="32" t="n"/>
-      <c r="P1" s="33" t="n"/>
-      <c r="Q1" s="27" t="inlineStr">
+      <c r="N1" s="37" t="n"/>
+      <c r="O1" s="37" t="n"/>
+      <c r="P1" s="38" t="n"/>
+      <c r="Q1" s="36" t="inlineStr">
         <is>
           <t>יום ה</t>
         </is>
       </c>
-      <c r="R1" s="32" t="n"/>
-      <c r="S1" s="32" t="n"/>
-      <c r="T1" s="33" t="n"/>
-      <c r="U1" s="31" t="inlineStr">
+      <c r="R1" s="37" t="n"/>
+      <c r="S1" s="37" t="n"/>
+      <c r="T1" s="38" t="n"/>
+      <c r="U1" s="40" t="inlineStr">
         <is>
           <t>יום ו</t>
         </is>
       </c>
-      <c r="V1" s="32" t="n"/>
-      <c r="W1" s="32" t="n"/>
-      <c r="X1" s="33" t="n"/>
-      <c r="Y1" s="27" t="inlineStr">
+      <c r="V1" s="37" t="n"/>
+      <c r="W1" s="37" t="n"/>
+      <c r="X1" s="38" t="n"/>
+      <c r="Y1" s="36" t="inlineStr">
         <is>
           <t>יום שבת</t>
         </is>
       </c>
-      <c r="Z1" s="32" t="n"/>
-      <c r="AA1" s="32" t="n"/>
-      <c r="AB1" s="33" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="16" t="inlineStr">
+      <c r="Z1" s="37" t="n"/>
+      <c r="AA1" s="37" t="n"/>
+      <c r="AB1" s="38" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A2" s="27" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="24" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="24" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="D2" s="24" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="E2" s="16" t="inlineStr">
+      <c r="E2" s="27" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="F2" s="24" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="G2" s="24" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="H2" s="17" t="inlineStr">
+      <c r="H2" s="28" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="I2" s="28" t="inlineStr">
+      <c r="I2" s="23" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="J2" s="10" t="inlineStr">
+      <c r="J2" s="24" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="K2" s="10" t="inlineStr">
+      <c r="K2" s="24" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="L2" s="24" t="inlineStr">
+      <c r="L2" s="25" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="M2" s="16" t="inlineStr">
+      <c r="M2" s="27" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="N2" s="10" t="inlineStr">
+      <c r="N2" s="24" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="O2" s="10" t="inlineStr">
+      <c r="O2" s="24" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="P2" s="17" t="inlineStr">
+      <c r="P2" s="28" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="Q2" s="28" t="inlineStr">
+      <c r="Q2" s="23" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="R2" s="10" t="inlineStr">
+      <c r="R2" s="24" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="S2" s="10" t="inlineStr">
+      <c r="S2" s="24" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="T2" s="24" t="inlineStr">
+      <c r="T2" s="25" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="U2" s="16" t="inlineStr">
+      <c r="U2" s="27" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="V2" s="10" t="inlineStr">
+      <c r="V2" s="24" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="W2" s="10" t="inlineStr">
+      <c r="W2" s="24" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="X2" s="17" t="inlineStr">
+      <c r="X2" s="28" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="Y2" s="28" t="inlineStr">
+      <c r="Y2" s="23" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="Z2" s="10" t="inlineStr">
+      <c r="Z2" s="24" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="AA2" s="10" t="inlineStr">
+      <c r="AA2" s="24" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="AB2" s="17" t="inlineStr">
+      <c r="AB2" s="28" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="28.8" customHeight="1" s="3">
-      <c r="A3" s="18" t="n"/>
-      <c r="B3" s="11" t="n"/>
-      <c r="C3" s="11" t="n"/>
-      <c r="D3" s="25" t="n"/>
-      <c r="E3" s="18" t="n"/>
-      <c r="F3" s="11" t="n"/>
-      <c r="G3" s="11" t="n"/>
-      <c r="H3" s="19" t="n"/>
-      <c r="I3" s="29" t="inlineStr">
+    <row r="3" ht="28.8" customHeight="1" s="8">
+      <c r="A3" s="14" t="n"/>
+      <c r="B3" s="15" t="n"/>
+      <c r="C3" s="15" t="n"/>
+      <c r="D3" s="17" t="n"/>
+      <c r="E3" s="14" t="n"/>
+      <c r="F3" s="15" t="n"/>
+      <c r="G3" s="15" t="n"/>
+      <c r="H3" s="17" t="n"/>
+      <c r="I3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="J3" s="11" t="inlineStr">
+      <c r="J3" s="15" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="K3" s="12" t="inlineStr">
+      <c r="K3" s="16" t="inlineStr">
         <is>
           <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="L3" s="25" t="inlineStr">
+      <c r="L3" s="26" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="M3" s="14" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="N3" s="15" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="O3" s="16" t="inlineStr">
+        <is>
+          <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
+        </is>
+      </c>
+      <c r="P3" s="17" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="M3" s="18" t="inlineStr">
+      <c r="Q3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="N3" s="11" t="inlineStr">
+      <c r="R3" s="15" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="S3" s="16" t="inlineStr">
+        <is>
+          <t>תחקיר סוף השכלה</t>
+        </is>
+      </c>
+      <c r="T3" s="17" t="inlineStr">
+        <is>
+          <t>1:30</t>
+        </is>
+      </c>
+      <c r="U3" s="14" t="n"/>
+      <c r="V3" s="15" t="n"/>
+      <c r="W3" s="15" t="n"/>
+      <c r="X3" s="17" t="n"/>
+      <c r="Y3" s="14" t="n"/>
+      <c r="Z3" s="15" t="n"/>
+      <c r="AA3" s="15" t="n"/>
+      <c r="AB3" s="17" t="n"/>
+    </row>
+    <row r="4" ht="28.8" customHeight="1" s="8">
+      <c r="A4" s="18" t="n"/>
+      <c r="B4" s="12" t="n"/>
+      <c r="C4" s="12" t="n"/>
+      <c r="D4" s="19" t="n"/>
+      <c r="E4" s="18" t="n"/>
+      <c r="F4" s="12" t="n"/>
+      <c r="G4" s="12" t="n"/>
+      <c r="H4" s="19" t="n"/>
+      <c r="I4" s="18" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="O3" s="12" t="inlineStr">
+      <c r="J4" s="12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="K4" s="13" t="inlineStr">
+        <is>
+          <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
+        </is>
+      </c>
+      <c r="L4" s="19" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="M4" s="18" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="N4" s="12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="O4" s="13" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
         </is>
       </c>
-      <c r="P3" s="19" t="inlineStr">
+      <c r="P4" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q3" s="29" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="R3" s="11" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="S3" s="12" t="inlineStr">
-        <is>
-          <t>תחקיר סוף השכלה</t>
-        </is>
-      </c>
-      <c r="T3" s="25" t="inlineStr">
+      <c r="Q4" s="18" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="R4" s="12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="S4" s="13" t="inlineStr">
+        <is>
+          <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
+        </is>
+      </c>
+      <c r="T4" s="19" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="U4" s="18" t="n"/>
+      <c r="V4" s="12" t="n"/>
+      <c r="W4" s="12" t="n"/>
+      <c r="X4" s="19" t="n"/>
+      <c r="Y4" s="18" t="n"/>
+      <c r="Z4" s="12" t="n"/>
+      <c r="AA4" s="12" t="n"/>
+      <c r="AB4" s="19" t="n"/>
+    </row>
+    <row r="5" ht="28.8" customHeight="1" s="8">
+      <c r="A5" s="18" t="n"/>
+      <c r="B5" s="12" t="n"/>
+      <c r="C5" s="12" t="n"/>
+      <c r="D5" s="19" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="19" t="n"/>
+      <c r="I5" s="18" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="J5" s="12" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="K5" s="13" t="inlineStr">
+        <is>
+          <t>קפה מגמה</t>
+        </is>
+      </c>
+      <c r="L5" s="19" t="inlineStr">
+        <is>
+          <t>0:30</t>
+        </is>
+      </c>
+      <c r="M5" s="18" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="N5" s="12" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="O5" s="13" t="inlineStr">
+        <is>
+          <t>ת. חדוא 2 למדמח - מדמ"ח - ויקטור ניקוליאבסקי</t>
+        </is>
+      </c>
+      <c r="P5" s="19" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="Q5" s="18" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="R5" s="12" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="S5" s="13" t="inlineStr">
+        <is>
+          <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
+        </is>
+      </c>
+      <c r="T5" s="19" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="U5" s="18" t="n"/>
+      <c r="V5" s="12" t="n"/>
+      <c r="W5" s="12" t="n"/>
+      <c r="X5" s="19" t="n"/>
+      <c r="Y5" s="18" t="n"/>
+      <c r="Z5" s="12" t="n"/>
+      <c r="AA5" s="12" t="n"/>
+      <c r="AB5" s="19" t="n"/>
+    </row>
+    <row r="6" ht="28.8" customHeight="1" s="8">
+      <c r="A6" s="18" t="n"/>
+      <c r="B6" s="12" t="n"/>
+      <c r="C6" s="12" t="n"/>
+      <c r="D6" s="19" t="n"/>
+      <c r="E6" s="18" t="n"/>
+      <c r="F6" s="12" t="n"/>
+      <c r="G6" s="12" t="n"/>
+      <c r="H6" s="19" t="n"/>
+      <c r="I6" s="18" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="J6" s="12" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="K6" s="13" t="inlineStr">
+        <is>
+          <t>אימון בריכה</t>
+        </is>
+      </c>
+      <c r="L6" s="19" t="inlineStr">
         <is>
           <t>1:30</t>
         </is>
       </c>
-      <c r="U3" s="18" t="n"/>
-      <c r="V3" s="11" t="n"/>
-      <c r="W3" s="11" t="n"/>
-      <c r="X3" s="19" t="n"/>
-      <c r="Y3" s="29" t="n"/>
-      <c r="Z3" s="11" t="n"/>
-      <c r="AA3" s="11" t="n"/>
-      <c r="AB3" s="19" t="n"/>
-    </row>
-    <row r="4" ht="28.8" customHeight="1" s="3">
-      <c r="A4" s="18" t="n"/>
-      <c r="B4" s="11" t="n"/>
-      <c r="C4" s="11" t="n"/>
-      <c r="D4" s="25" t="n"/>
-      <c r="E4" s="18" t="n"/>
-      <c r="F4" s="11" t="n"/>
-      <c r="G4" s="11" t="n"/>
-      <c r="H4" s="19" t="n"/>
-      <c r="I4" s="29" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="J4" s="11" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="K4" s="12" t="inlineStr">
-        <is>
-          <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
-        </is>
-      </c>
-      <c r="L4" s="25" t="inlineStr">
+      <c r="M6" s="18" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="N6" s="12" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="O6" s="13" t="inlineStr">
+        <is>
+          <t>הגשת עבודה 3 בחדוא</t>
+        </is>
+      </c>
+      <c r="P6" s="19" t="inlineStr">
+        <is>
+          <t>0:30</t>
+        </is>
+      </c>
+      <c r="Q6" s="18" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="R6" s="12" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="S6" s="13" t="inlineStr">
+        <is>
+          <t>ת. תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
+        </is>
+      </c>
+      <c r="T6" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="M4" s="18" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="N4" s="11" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="O4" s="12" t="inlineStr">
-        <is>
-          <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
-        </is>
-      </c>
-      <c r="P4" s="19" t="inlineStr">
+      <c r="U6" s="18" t="n"/>
+      <c r="V6" s="12" t="n"/>
+      <c r="W6" s="12" t="n"/>
+      <c r="X6" s="19" t="n"/>
+      <c r="Y6" s="18" t="n"/>
+      <c r="Z6" s="12" t="n"/>
+      <c r="AA6" s="12" t="n"/>
+      <c r="AB6" s="19" t="n"/>
+    </row>
+    <row r="7" ht="28.8" customHeight="1" s="8">
+      <c r="A7" s="18" t="n"/>
+      <c r="B7" s="12" t="n"/>
+      <c r="C7" s="12" t="n"/>
+      <c r="D7" s="19" t="n"/>
+      <c r="E7" s="18" t="n"/>
+      <c r="F7" s="12" t="n"/>
+      <c r="G7" s="12" t="n"/>
+      <c r="H7" s="19" t="n"/>
+      <c r="I7" s="18" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="J7" s="12" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="K7" s="13" t="inlineStr">
+        <is>
+          <t>ת. מבני נתונים - מדמ"ח - רועי איזנשטדט</t>
+        </is>
+      </c>
+      <c r="L7" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q4" s="29" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="R4" s="11" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="S4" s="12" t="inlineStr">
-        <is>
-          <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
-        </is>
-      </c>
-      <c r="T4" s="25" t="inlineStr">
+      <c r="M7" s="18" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="N7" s="12" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="O7" s="13" t="inlineStr">
+        <is>
+          <t>מבוא למחשבים למדעי המחשב - מדמ"ח - אילן שלום</t>
+        </is>
+      </c>
+      <c r="P7" s="19" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="Q7" s="18" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="R7" s="12" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="S7" s="13" t="inlineStr">
+        <is>
+          <t>תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
+        </is>
+      </c>
+      <c r="T7" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="U4" s="18" t="n"/>
-      <c r="V4" s="11" t="n"/>
-      <c r="W4" s="11" t="n"/>
-      <c r="X4" s="19" t="n"/>
-      <c r="Y4" s="29" t="n"/>
-      <c r="Z4" s="11" t="n"/>
-      <c r="AA4" s="11" t="n"/>
-      <c r="AB4" s="19" t="n"/>
-    </row>
-    <row r="5" ht="28.8" customHeight="1" s="3">
-      <c r="A5" s="18" t="n"/>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="11" t="n"/>
-      <c r="D5" s="25" t="n"/>
-      <c r="E5" s="18" t="n"/>
-      <c r="F5" s="11" t="n"/>
-      <c r="G5" s="11" t="n"/>
-      <c r="H5" s="19" t="n"/>
-      <c r="I5" s="29" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="J5" s="11" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="K5" s="12" t="inlineStr">
-        <is>
-          <t>קפה מגמה</t>
-        </is>
-      </c>
-      <c r="L5" s="25" t="inlineStr">
-        <is>
-          <t>0:30</t>
-        </is>
-      </c>
-      <c r="M5" s="18" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N5" s="11" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="O5" s="12" t="inlineStr">
-        <is>
-          <t>ת. חדוא 2 למדמח - מדמ"ח - ויקטור ניקוליאבסקי</t>
-        </is>
-      </c>
-      <c r="P5" s="19" t="inlineStr">
+      <c r="U7" s="18" t="n"/>
+      <c r="V7" s="12" t="n"/>
+      <c r="W7" s="12" t="n"/>
+      <c r="X7" s="19" t="n"/>
+      <c r="Y7" s="18" t="n"/>
+      <c r="Z7" s="12" t="n"/>
+      <c r="AA7" s="12" t="n"/>
+      <c r="AB7" s="19" t="n"/>
+    </row>
+    <row r="8" ht="43.2" customHeight="1" s="8">
+      <c r="A8" s="18" t="n"/>
+      <c r="B8" s="12" t="n"/>
+      <c r="C8" s="12" t="n"/>
+      <c r="D8" s="19" t="n"/>
+      <c r="E8" s="18" t="n"/>
+      <c r="F8" s="12" t="n"/>
+      <c r="G8" s="12" t="n"/>
+      <c r="H8" s="19" t="n"/>
+      <c r="I8" s="18" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="J8" s="12" t="inlineStr">
+        <is>
+          <t>21:45</t>
+        </is>
+      </c>
+      <c r="K8" s="13" t="inlineStr">
+        <is>
+          <t>ערב גיבוש מפקדת</t>
+        </is>
+      </c>
+      <c r="L8" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q5" s="29" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="R5" s="11" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="S5" s="12" t="inlineStr">
-        <is>
-          <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
-        </is>
-      </c>
-      <c r="T5" s="25" t="inlineStr">
+      <c r="M8" s="18" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="N8" s="12" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="O8" s="13" t="inlineStr">
+        <is>
+          <t>דת האסלאם והמזרח התיכון המודרני - סוגיות יסוד - אסף רגב</t>
+        </is>
+      </c>
+      <c r="P8" s="19" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="Q8" s="18" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="R8" s="12" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="S8" s="13" t="inlineStr">
+        <is>
+          <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - שמעון רגב</t>
+        </is>
+      </c>
+      <c r="T8" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="U5" s="18" t="n"/>
-      <c r="V5" s="11" t="n"/>
-      <c r="W5" s="11" t="n"/>
-      <c r="X5" s="19" t="n"/>
-      <c r="Y5" s="29" t="n"/>
-      <c r="Z5" s="11" t="n"/>
-      <c r="AA5" s="11" t="n"/>
-      <c r="AB5" s="19" t="n"/>
-    </row>
-    <row r="6" ht="28.8" customHeight="1" s="3">
-      <c r="A6" s="18" t="n"/>
-      <c r="B6" s="11" t="n"/>
-      <c r="C6" s="11" t="n"/>
-      <c r="D6" s="25" t="n"/>
-      <c r="E6" s="18" t="n"/>
-      <c r="F6" s="11" t="n"/>
-      <c r="G6" s="11" t="n"/>
-      <c r="H6" s="19" t="n"/>
-      <c r="I6" s="29" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="J6" s="11" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="K6" s="12" t="inlineStr">
-        <is>
-          <t>אימון בריכה</t>
-        </is>
-      </c>
-      <c r="L6" s="25" t="inlineStr">
-        <is>
-          <t>1:30</t>
-        </is>
-      </c>
-      <c r="M6" s="18" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N6" s="11" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="O6" s="12" t="inlineStr">
-        <is>
-          <t>הגשת עבודה 3 בחדוא</t>
-        </is>
-      </c>
-      <c r="P6" s="19" t="inlineStr">
-        <is>
-          <t>0:30</t>
-        </is>
-      </c>
-      <c r="Q6" s="29" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="R6" s="11" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="S6" s="12" t="inlineStr">
-        <is>
-          <t>ת. תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
-        </is>
-      </c>
-      <c r="T6" s="25" t="inlineStr">
-        <is>
-          <t>2:00</t>
-        </is>
-      </c>
-      <c r="U6" s="18" t="n"/>
-      <c r="V6" s="11" t="n"/>
-      <c r="W6" s="11" t="n"/>
-      <c r="X6" s="19" t="n"/>
-      <c r="Y6" s="29" t="n"/>
-      <c r="Z6" s="11" t="n"/>
-      <c r="AA6" s="11" t="n"/>
-      <c r="AB6" s="19" t="n"/>
-    </row>
-    <row r="7" ht="28.8" customHeight="1" s="3">
-      <c r="A7" s="18" t="n"/>
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="11" t="n"/>
-      <c r="D7" s="25" t="n"/>
-      <c r="E7" s="18" t="n"/>
-      <c r="F7" s="11" t="n"/>
-      <c r="G7" s="11" t="n"/>
-      <c r="H7" s="19" t="n"/>
-      <c r="I7" s="29" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="J7" s="11" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="K7" s="12" t="inlineStr">
-        <is>
-          <t>ת. מבני נתונים - מדמ"ח - רועי איזנשטדט</t>
-        </is>
-      </c>
-      <c r="L7" s="25" t="inlineStr">
-        <is>
-          <t>2:00</t>
-        </is>
-      </c>
-      <c r="M7" s="18" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N7" s="11" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="O7" s="12" t="inlineStr">
-        <is>
-          <t>מבוא למחשבים למדעי המחשב - מדמ"ח - אילן שלום</t>
-        </is>
-      </c>
-      <c r="P7" s="19" t="inlineStr">
-        <is>
-          <t>3:00</t>
-        </is>
-      </c>
-      <c r="Q7" s="29" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="R7" s="11" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="S7" s="12" t="inlineStr">
-        <is>
-          <t>תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
-        </is>
-      </c>
-      <c r="T7" s="25" t="inlineStr">
-        <is>
-          <t>2:00</t>
-        </is>
-      </c>
-      <c r="U7" s="18" t="n"/>
-      <c r="V7" s="11" t="n"/>
-      <c r="W7" s="11" t="n"/>
-      <c r="X7" s="19" t="n"/>
-      <c r="Y7" s="29" t="n"/>
-      <c r="Z7" s="11" t="n"/>
-      <c r="AA7" s="11" t="n"/>
-      <c r="AB7" s="19" t="n"/>
-    </row>
-    <row r="8" ht="43.2" customHeight="1" s="3">
-      <c r="A8" s="18" t="n"/>
-      <c r="B8" s="11" t="n"/>
-      <c r="C8" s="11" t="n"/>
-      <c r="D8" s="25" t="n"/>
-      <c r="E8" s="18" t="n"/>
-      <c r="F8" s="11" t="n"/>
-      <c r="G8" s="11" t="n"/>
-      <c r="H8" s="19" t="n"/>
-      <c r="I8" s="29" t="inlineStr">
-        <is>
-          <t>19:45</t>
-        </is>
-      </c>
-      <c r="J8" s="11" t="inlineStr">
-        <is>
-          <t>21:45</t>
-        </is>
-      </c>
-      <c r="K8" s="12" t="inlineStr">
-        <is>
-          <t>ערב גיבוש מפקדת</t>
-        </is>
-      </c>
-      <c r="L8" s="25" t="inlineStr">
-        <is>
-          <t>2:00</t>
-        </is>
-      </c>
-      <c r="M8" s="18" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="N8" s="11" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="O8" s="12" t="inlineStr">
-        <is>
-          <t>דת האסלאם והמזרח התיכון המודרני - סוגיות יסוד - אסף רגב</t>
-        </is>
-      </c>
-      <c r="P8" s="19" t="inlineStr">
-        <is>
-          <t>3:00</t>
-        </is>
-      </c>
-      <c r="Q8" s="29" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="R8" s="11" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="S8" s="12" t="inlineStr">
-        <is>
-          <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - שמעון רגב</t>
-        </is>
-      </c>
-      <c r="T8" s="25" t="inlineStr">
-        <is>
-          <t>2:00</t>
-        </is>
-      </c>
       <c r="U8" s="18" t="n"/>
-      <c r="V8" s="11" t="n"/>
-      <c r="W8" s="11" t="n"/>
+      <c r="V8" s="12" t="n"/>
+      <c r="W8" s="12" t="n"/>
       <c r="X8" s="19" t="n"/>
-      <c r="Y8" s="29" t="n"/>
-      <c r="Z8" s="11" t="n"/>
-      <c r="AA8" s="11" t="n"/>
+      <c r="Y8" s="18" t="n"/>
+      <c r="Z8" s="12" t="n"/>
+      <c r="AA8" s="12" t="n"/>
       <c r="AB8" s="19" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="18" t="n"/>
-      <c r="B9" s="11" t="n"/>
-      <c r="C9" s="11" t="n"/>
-      <c r="D9" s="25" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" s="12" t="n"/>
+      <c r="D9" s="19" t="n"/>
       <c r="E9" s="18" t="n"/>
-      <c r="F9" s="11" t="n"/>
-      <c r="G9" s="11" t="n"/>
+      <c r="F9" s="12" t="n"/>
+      <c r="G9" s="12" t="n"/>
       <c r="H9" s="19" t="n"/>
-      <c r="I9" s="29" t="n"/>
-      <c r="J9" s="11" t="n"/>
-      <c r="K9" s="11" t="n"/>
-      <c r="L9" s="25" t="n"/>
+      <c r="I9" s="18" t="n"/>
+      <c r="J9" s="12" t="n"/>
+      <c r="K9" s="12" t="n"/>
+      <c r="L9" s="19" t="n"/>
       <c r="M9" s="18" t="n"/>
-      <c r="N9" s="11" t="n"/>
-      <c r="O9" s="11" t="n"/>
+      <c r="N9" s="12" t="n"/>
+      <c r="O9" s="12" t="n"/>
       <c r="P9" s="19" t="n"/>
-      <c r="Q9" s="29" t="n"/>
-      <c r="R9" s="11" t="n"/>
-      <c r="S9" s="11" t="n"/>
-      <c r="T9" s="25" t="n"/>
+      <c r="Q9" s="18" t="n"/>
+      <c r="R9" s="12" t="n"/>
+      <c r="S9" s="12" t="n"/>
+      <c r="T9" s="19" t="n"/>
       <c r="U9" s="18" t="n"/>
-      <c r="V9" s="11" t="n"/>
-      <c r="W9" s="11" t="n"/>
+      <c r="V9" s="12" t="n"/>
+      <c r="W9" s="12" t="n"/>
       <c r="X9" s="19" t="n"/>
-      <c r="Y9" s="29" t="n"/>
-      <c r="Z9" s="11" t="n"/>
-      <c r="AA9" s="11" t="n"/>
+      <c r="Y9" s="18" t="n"/>
+      <c r="Z9" s="12" t="n"/>
+      <c r="AA9" s="12" t="n"/>
       <c r="AB9" s="19" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="18" t="n"/>
-      <c r="B10" s="11" t="n"/>
-      <c r="C10" s="11" t="n"/>
-      <c r="D10" s="25" t="n"/>
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" s="12" t="n"/>
+      <c r="D10" s="19" t="n"/>
       <c r="E10" s="18" t="n"/>
-      <c r="F10" s="11" t="n"/>
-      <c r="G10" s="11" t="n"/>
+      <c r="F10" s="12" t="n"/>
+      <c r="G10" s="12" t="n"/>
       <c r="H10" s="19" t="n"/>
-      <c r="I10" s="29" t="n"/>
-      <c r="J10" s="11" t="n"/>
-      <c r="K10" s="11" t="n"/>
-      <c r="L10" s="25" t="n"/>
+      <c r="I10" s="18" t="n"/>
+      <c r="J10" s="12" t="n"/>
+      <c r="K10" s="12" t="n"/>
+      <c r="L10" s="19" t="n"/>
       <c r="M10" s="18" t="n"/>
-      <c r="N10" s="11" t="n"/>
-      <c r="O10" s="11" t="n"/>
+      <c r="N10" s="12" t="n"/>
+      <c r="O10" s="12" t="n"/>
       <c r="P10" s="19" t="n"/>
-      <c r="Q10" s="29" t="n"/>
-      <c r="R10" s="11" t="n"/>
-      <c r="S10" s="11" t="n"/>
-      <c r="T10" s="25" t="n"/>
+      <c r="Q10" s="18" t="n"/>
+      <c r="R10" s="12" t="n"/>
+      <c r="S10" s="12" t="n"/>
+      <c r="T10" s="19" t="n"/>
       <c r="U10" s="18" t="n"/>
-      <c r="V10" s="11" t="n"/>
-      <c r="W10" s="11" t="n"/>
+      <c r="V10" s="12" t="n"/>
+      <c r="W10" s="12" t="n"/>
       <c r="X10" s="19" t="n"/>
-      <c r="Y10" s="29" t="n"/>
-      <c r="Z10" s="11" t="n"/>
-      <c r="AA10" s="11" t="n"/>
+      <c r="Y10" s="18" t="n"/>
+      <c r="Z10" s="12" t="n"/>
+      <c r="AA10" s="12" t="n"/>
       <c r="AB10" s="19" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="18" t="n"/>
-      <c r="B11" s="11" t="n"/>
-      <c r="C11" s="11" t="n"/>
-      <c r="D11" s="25" t="n"/>
+      <c r="B11" s="12" t="n"/>
+      <c r="C11" s="12" t="n"/>
+      <c r="D11" s="19" t="n"/>
       <c r="E11" s="18" t="n"/>
-      <c r="F11" s="11" t="n"/>
-      <c r="G11" s="11" t="n"/>
+      <c r="F11" s="12" t="n"/>
+      <c r="G11" s="12" t="n"/>
       <c r="H11" s="19" t="n"/>
-      <c r="I11" s="29" t="n"/>
-      <c r="J11" s="11" t="n"/>
-      <c r="K11" s="11" t="n"/>
-      <c r="L11" s="25" t="n"/>
+      <c r="I11" s="18" t="n"/>
+      <c r="J11" s="12" t="n"/>
+      <c r="K11" s="12" t="n"/>
+      <c r="L11" s="19" t="n"/>
       <c r="M11" s="18" t="n"/>
-      <c r="N11" s="11" t="n"/>
-      <c r="O11" s="11" t="n"/>
+      <c r="N11" s="12" t="n"/>
+      <c r="O11" s="12" t="n"/>
       <c r="P11" s="19" t="n"/>
-      <c r="Q11" s="29" t="n"/>
-      <c r="R11" s="11" t="n"/>
-      <c r="S11" s="11" t="n"/>
-      <c r="T11" s="25" t="n"/>
+      <c r="Q11" s="18" t="n"/>
+      <c r="R11" s="12" t="n"/>
+      <c r="S11" s="12" t="n"/>
+      <c r="T11" s="19" t="n"/>
       <c r="U11" s="18" t="n"/>
-      <c r="V11" s="11" t="n"/>
-      <c r="W11" s="11" t="n"/>
+      <c r="V11" s="12" t="n"/>
+      <c r="W11" s="12" t="n"/>
       <c r="X11" s="19" t="n"/>
-      <c r="Y11" s="29" t="n"/>
-      <c r="Z11" s="11" t="n"/>
-      <c r="AA11" s="11" t="n"/>
+      <c r="Y11" s="18" t="n"/>
+      <c r="Z11" s="12" t="n"/>
+      <c r="AA11" s="12" t="n"/>
       <c r="AB11" s="19" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="18" t="n"/>
-      <c r="B12" s="11" t="n"/>
-      <c r="C12" s="11" t="n"/>
-      <c r="D12" s="25" t="n"/>
+      <c r="B12" s="12" t="n"/>
+      <c r="C12" s="12" t="n"/>
+      <c r="D12" s="19" t="n"/>
       <c r="E12" s="18" t="n"/>
-      <c r="F12" s="11" t="n"/>
-      <c r="G12" s="11" t="n"/>
+      <c r="F12" s="12" t="n"/>
+      <c r="G12" s="12" t="n"/>
       <c r="H12" s="19" t="n"/>
-      <c r="I12" s="29" t="n"/>
-      <c r="J12" s="11" t="n"/>
-      <c r="K12" s="11" t="n"/>
-      <c r="L12" s="25" t="n"/>
+      <c r="I12" s="18" t="n"/>
+      <c r="J12" s="12" t="n"/>
+      <c r="K12" s="12" t="n"/>
+      <c r="L12" s="19" t="n"/>
       <c r="M12" s="18" t="n"/>
-      <c r="N12" s="11" t="n"/>
-      <c r="O12" s="11" t="n"/>
+      <c r="N12" s="12" t="n"/>
+      <c r="O12" s="12" t="n"/>
       <c r="P12" s="19" t="n"/>
-      <c r="Q12" s="29" t="n"/>
-      <c r="R12" s="11" t="n"/>
-      <c r="S12" s="11" t="n"/>
-      <c r="T12" s="25" t="n"/>
+      <c r="Q12" s="18" t="n"/>
+      <c r="R12" s="12" t="n"/>
+      <c r="S12" s="12" t="n"/>
+      <c r="T12" s="19" t="n"/>
       <c r="U12" s="18" t="n"/>
-      <c r="V12" s="11" t="n"/>
-      <c r="W12" s="11" t="n"/>
+      <c r="V12" s="12" t="n"/>
+      <c r="W12" s="12" t="n"/>
       <c r="X12" s="19" t="n"/>
-      <c r="Y12" s="29" t="n"/>
-      <c r="Z12" s="11" t="n"/>
-      <c r="AA12" s="11" t="n"/>
+      <c r="Y12" s="18" t="n"/>
+      <c r="Z12" s="12" t="n"/>
+      <c r="AA12" s="12" t="n"/>
       <c r="AB12" s="19" t="n"/>
     </row>
-    <row r="13" ht="15" customHeight="1" s="3" thickBot="1">
+    <row r="13" ht="15" customHeight="1" s="8" thickBot="1">
       <c r="A13" s="20" t="n"/>
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="n"/>
-      <c r="D13" s="26" t="n"/>
+      <c r="D13" s="22" t="n"/>
       <c r="E13" s="20" t="n"/>
       <c r="F13" s="21" t="n"/>
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="22" t="n"/>
-      <c r="I13" s="30" t="n"/>
+      <c r="I13" s="20" t="n"/>
       <c r="J13" s="21" t="n"/>
       <c r="K13" s="21" t="n"/>
-      <c r="L13" s="26" t="n"/>
+      <c r="L13" s="22" t="n"/>
       <c r="M13" s="20" t="n"/>
       <c r="N13" s="21" t="n"/>
       <c r="O13" s="21" t="n"/>
       <c r="P13" s="22" t="n"/>
-      <c r="Q13" s="30" t="n"/>
+      <c r="Q13" s="20" t="n"/>
       <c r="R13" s="21" t="n"/>
       <c r="S13" s="21" t="n"/>
-      <c r="T13" s="26" t="n"/>
+      <c r="T13" s="22" t="n"/>
       <c r="U13" s="20" t="n"/>
       <c r="V13" s="21" t="n"/>
       <c r="W13" s="21" t="n"/>
       <c r="X13" s="22" t="n"/>
-      <c r="Y13" s="30" t="n"/>
+      <c r="Y13" s="20" t="n"/>
       <c r="Z13" s="21" t="n"/>
       <c r="AA13" s="21" t="n"/>
       <c r="AB13" s="22" t="n"/>
     </row>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23" ht="15" customHeight="1" s="3"/>
+    <row r="23" ht="15" customHeight="1" s="8"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="Y1:AB1"/>
@@ -3081,228 +3111,228 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AB1"/>
+      <selection activeCell="Y3" sqref="Y3:AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="5.44140625" customWidth="1" style="3" min="1" max="2"/>
-    <col width="16.88671875" customWidth="1" style="3" min="3" max="3"/>
-    <col width="5.44140625" customWidth="1" style="3" min="4" max="6"/>
-    <col width="16.77734375" customWidth="1" style="3" min="7" max="7"/>
-    <col width="5.44140625" customWidth="1" style="3" min="8" max="10"/>
-    <col width="16.6640625" customWidth="1" style="3" min="11" max="11"/>
-    <col width="5.44140625" customWidth="1" style="3" min="12" max="14"/>
-    <col width="16.6640625" customWidth="1" style="3" min="15" max="15"/>
-    <col width="5.44140625" customWidth="1" style="3" min="16" max="18"/>
-    <col width="16.6640625" customWidth="1" style="3" min="19" max="19"/>
-    <col width="5.44140625" customWidth="1" style="3" min="20" max="28"/>
+    <col width="5.44140625" customWidth="1" style="8" min="1" max="2"/>
+    <col width="16.88671875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="5.44140625" customWidth="1" style="8" min="4" max="6"/>
+    <col width="16.77734375" customWidth="1" style="8" min="7" max="7"/>
+    <col width="5.44140625" customWidth="1" style="8" min="8" max="10"/>
+    <col width="16.6640625" customWidth="1" style="8" min="11" max="11"/>
+    <col width="5.44140625" customWidth="1" style="8" min="12" max="14"/>
+    <col width="16.6640625" customWidth="1" style="8" min="15" max="15"/>
+    <col width="5.44140625" customWidth="1" style="8" min="16" max="18"/>
+    <col width="16.6640625" customWidth="1" style="8" min="19" max="19"/>
+    <col width="5.44140625" customWidth="1" style="8" min="20" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="inlineStr">
+      <c r="A1" s="39" t="inlineStr">
         <is>
           <t>יום א</t>
         </is>
       </c>
-      <c r="B1" s="32" t="n"/>
-      <c r="C1" s="32" t="n"/>
-      <c r="D1" s="33" t="n"/>
-      <c r="E1" s="31" t="inlineStr">
+      <c r="B1" s="37" t="n"/>
+      <c r="C1" s="37" t="n"/>
+      <c r="D1" s="38" t="n"/>
+      <c r="E1" s="40" t="inlineStr">
         <is>
           <t>יום ב</t>
         </is>
       </c>
-      <c r="F1" s="32" t="n"/>
-      <c r="G1" s="32" t="n"/>
-      <c r="H1" s="33" t="n"/>
-      <c r="I1" s="27" t="inlineStr">
+      <c r="F1" s="37" t="n"/>
+      <c r="G1" s="37" t="n"/>
+      <c r="H1" s="38" t="n"/>
+      <c r="I1" s="36" t="inlineStr">
         <is>
           <t>יום ג</t>
         </is>
       </c>
-      <c r="J1" s="32" t="n"/>
-      <c r="K1" s="32" t="n"/>
-      <c r="L1" s="33" t="n"/>
-      <c r="M1" s="31" t="inlineStr">
+      <c r="J1" s="37" t="n"/>
+      <c r="K1" s="37" t="n"/>
+      <c r="L1" s="38" t="n"/>
+      <c r="M1" s="40" t="inlineStr">
         <is>
           <t>יום ד</t>
         </is>
       </c>
-      <c r="N1" s="32" t="n"/>
-      <c r="O1" s="32" t="n"/>
-      <c r="P1" s="33" t="n"/>
-      <c r="Q1" s="27" t="inlineStr">
+      <c r="N1" s="37" t="n"/>
+      <c r="O1" s="37" t="n"/>
+      <c r="P1" s="38" t="n"/>
+      <c r="Q1" s="36" t="inlineStr">
         <is>
           <t>יום ה</t>
         </is>
       </c>
-      <c r="R1" s="32" t="n"/>
-      <c r="S1" s="32" t="n"/>
-      <c r="T1" s="33" t="n"/>
-      <c r="U1" s="31" t="inlineStr">
+      <c r="R1" s="37" t="n"/>
+      <c r="S1" s="37" t="n"/>
+      <c r="T1" s="38" t="n"/>
+      <c r="U1" s="40" t="inlineStr">
         <is>
           <t>יום ו</t>
         </is>
       </c>
-      <c r="V1" s="32" t="n"/>
-      <c r="W1" s="32" t="n"/>
-      <c r="X1" s="33" t="n"/>
-      <c r="Y1" s="27" t="inlineStr">
+      <c r="V1" s="37" t="n"/>
+      <c r="W1" s="37" t="n"/>
+      <c r="X1" s="38" t="n"/>
+      <c r="Y1" s="36" t="inlineStr">
         <is>
           <t>יום שבת</t>
         </is>
       </c>
-      <c r="Z1" s="32" t="n"/>
-      <c r="AA1" s="32" t="n"/>
-      <c r="AB1" s="33" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="3" thickBot="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="Z1" s="37" t="n"/>
+      <c r="AA1" s="37" t="n"/>
+      <c r="AB1" s="38" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="K2" s="6" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="L2" s="7" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="N2" s="6" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="O2" s="6" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="P2" s="6" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="Q2" s="5" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="R2" s="6" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="S2" s="6" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="T2" s="7" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="U2" s="6" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="V2" s="6" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="W2" s="6" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="X2" s="6" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="Z2" s="6" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="AA2" s="6" t="inlineStr">
+      <c r="AA2" s="5" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="AB2" s="7" t="inlineStr">
+      <c r="AB2" s="6" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="43.2" customHeight="1" s="3">
+    <row r="3" ht="43.2" customHeight="1" s="8">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3313,100 +3343,106 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>ללא לימודים</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>10:3</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="16" t="inlineStr">
         <is>
           <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="17" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="15" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" s="16" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="17" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="15" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="O3" s="8" t="inlineStr">
+      <c r="O3" s="16" t="inlineStr">
         <is>
           <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="17" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
+      <c r="Q3" s="14" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="15" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="S3" s="8" t="inlineStr">
+      <c r="S3" s="16" t="inlineStr">
         <is>
           <t>חדוא 2 למדמח - מדמ"ח - ארקדי ליידרמן</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="17" t="inlineStr">
         <is>
           <t>2:30</t>
         </is>
       </c>
-      <c r="Y3" s="2" t="n"/>
-      <c r="AB3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="43.2" customHeight="1" s="3">
+      <c r="U3" s="14" t="n"/>
+      <c r="V3" s="15" t="n"/>
+      <c r="W3" s="15" t="n"/>
+      <c r="X3" s="17" t="n"/>
+      <c r="Y3" s="14" t="n"/>
+      <c r="Z3" s="15" t="n"/>
+      <c r="AA3" s="15" t="n"/>
+      <c r="AB3" s="17" t="n"/>
+    </row>
+    <row r="4" ht="43.2" customHeight="1" s="8">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>18:30</t>
@@ -3417,490 +3453,506 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>סוגיות בלוחמה אווירית - דני עוזיאל</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>3:00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="18" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="G4" s="8" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="I4" s="18" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="12" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="K4" s="8" t="inlineStr">
+      <c r="K4" s="13" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="18" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="12" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="O4" s="8" t="inlineStr">
+      <c r="O4" s="13" t="inlineStr">
         <is>
           <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="n"/>
-      <c r="S4" s="8" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="Y4" s="2" t="n"/>
-      <c r="AB4" s="4" t="n"/>
-    </row>
-    <row r="5" ht="43.2" customHeight="1" s="3">
+      <c r="Q4" s="18" t="n"/>
+      <c r="R4" s="12" t="n"/>
+      <c r="S4" s="13" t="n"/>
+      <c r="T4" s="19" t="n"/>
+      <c r="U4" s="18" t="n"/>
+      <c r="V4" s="12" t="n"/>
+      <c r="W4" s="12" t="n"/>
+      <c r="X4" s="19" t="n"/>
+      <c r="Y4" s="18" t="n"/>
+      <c r="Z4" s="12" t="n"/>
+      <c r="AA4" s="12" t="n"/>
+      <c r="AB4" s="19" t="n"/>
+    </row>
+    <row r="5" ht="43.2" customHeight="1" s="8">
       <c r="A5" s="2" t="n"/>
-      <c r="C5" s="8" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" t="inlineStr">
+      <c r="C5" s="9" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="18" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="12" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>ת. חדוא 2 למדמח - מדמ"ח - ויקטור ניקוליאבסקי</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I5" s="18" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="12" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="K5" s="8" t="inlineStr">
+      <c r="K5" s="13" t="inlineStr">
         <is>
           <t>חדוא 2 למדמח - מדמ"ח - ארקדי ליידרמן</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="18" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="12" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="O5" s="8" t="inlineStr">
+      <c r="O5" s="13" t="inlineStr">
         <is>
           <t>ת. מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="19" t="inlineStr">
         <is>
           <t>1:00</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="n"/>
-      <c r="S5" s="8" t="n"/>
-      <c r="T5" s="4" t="n"/>
-      <c r="Y5" s="2" t="n"/>
-      <c r="AB5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="43.2" customHeight="1" s="3">
+      <c r="Q5" s="18" t="n"/>
+      <c r="R5" s="12" t="n"/>
+      <c r="S5" s="13" t="n"/>
+      <c r="T5" s="19" t="n"/>
+      <c r="U5" s="18" t="n"/>
+      <c r="V5" s="12" t="n"/>
+      <c r="W5" s="12" t="n"/>
+      <c r="X5" s="19" t="n"/>
+      <c r="Y5" s="18" t="n"/>
+      <c r="Z5" s="12" t="n"/>
+      <c r="AA5" s="12" t="n"/>
+      <c r="AB5" s="19" t="n"/>
+    </row>
+    <row r="6" ht="43.2" customHeight="1" s="8">
       <c r="A6" s="2" t="n"/>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" t="inlineStr">
+      <c r="C6" s="9" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="18" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="G6" s="8" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>חדוא 2 למדמח - מדמ"ח - ארקדי ליידרמן</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="19" t="inlineStr">
         <is>
           <t>3:00</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="I6" s="18" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="12" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="K6" s="8" t="inlineStr">
+      <c r="K6" s="13" t="inlineStr">
         <is>
           <t>ת. מבני נתונים - מדמ"ח - רועי איזנשטדט</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="18" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="O6" s="8" t="inlineStr">
+      <c r="O6" s="13" t="inlineStr">
         <is>
           <t>ת. חדוא 2 למדמח - מדמ"ח - ויקטור ניקוליאבסקי</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="n"/>
-      <c r="S6" s="8" t="n"/>
-      <c r="T6" s="4" t="n"/>
-      <c r="Y6" s="2" t="n"/>
-      <c r="AB6" s="4" t="n"/>
-    </row>
-    <row r="7" ht="43.2" customHeight="1" s="3">
+      <c r="Q6" s="18" t="n"/>
+      <c r="R6" s="12" t="n"/>
+      <c r="S6" s="13" t="n"/>
+      <c r="T6" s="19" t="n"/>
+      <c r="U6" s="18" t="n"/>
+      <c r="V6" s="12" t="n"/>
+      <c r="W6" s="12" t="n"/>
+      <c r="X6" s="19" t="n"/>
+      <c r="Y6" s="18" t="n"/>
+      <c r="Z6" s="12" t="n"/>
+      <c r="AA6" s="12" t="n"/>
+      <c r="AB6" s="19" t="n"/>
+    </row>
+    <row r="7" ht="43.2" customHeight="1" s="8">
       <c r="A7" s="2" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="18" t="n"/>
+      <c r="F7" s="12" t="n"/>
+      <c r="G7" s="12" t="n"/>
+      <c r="H7" s="19" t="n"/>
+      <c r="I7" s="18" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="J7" s="12" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="K7" s="13" t="inlineStr">
+        <is>
+          <t>מבוא למחשבים למדעי המחשב - מדמ"ח - אילן שלום</t>
+        </is>
+      </c>
+      <c r="L7" s="19" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="M7" s="18" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="N7" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="K7" s="8" t="inlineStr">
-        <is>
-          <t>הצגת ענפי מפקדת</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>1:00</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="O7" s="8" t="inlineStr">
+      <c r="O7" s="13" t="inlineStr">
         <is>
           <t>ת. מבוא למחשבים למדעי המחשב - מדמ"ח - עמית אפרים</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q7" s="2" t="n"/>
-      <c r="S7" s="8" t="n"/>
-      <c r="T7" s="4" t="n"/>
-      <c r="Y7" s="2" t="n"/>
-      <c r="AB7" s="4" t="n"/>
-    </row>
-    <row r="8" ht="43.2" customHeight="1" s="3">
+      <c r="Q7" s="18" t="n"/>
+      <c r="R7" s="12" t="n"/>
+      <c r="S7" s="13" t="n"/>
+      <c r="T7" s="19" t="n"/>
+      <c r="U7" s="18" t="n"/>
+      <c r="V7" s="12" t="n"/>
+      <c r="W7" s="12" t="n"/>
+      <c r="X7" s="19" t="n"/>
+      <c r="Y7" s="18" t="n"/>
+      <c r="Z7" s="12" t="n"/>
+      <c r="AA7" s="12" t="n"/>
+      <c r="AB7" s="19" t="n"/>
+    </row>
+    <row r="8" ht="43.2" customHeight="1" s="8">
       <c r="A8" s="2" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="18" t="n"/>
+      <c r="F8" s="12" t="n"/>
+      <c r="G8" s="12" t="n"/>
+      <c r="H8" s="19" t="n"/>
+      <c r="I8" s="18" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="12" t="inlineStr">
         <is>
           <t>21:30</t>
         </is>
       </c>
-      <c r="K8" s="8" t="inlineStr">
+      <c r="K8" s="13" t="inlineStr">
         <is>
           <t>מבוא למחשבים למדעי המחשב - מדמ"ח - אילן שלום</t>
         </is>
       </c>
-      <c r="L8" s="4" t="inlineStr">
+      <c r="L8" s="19" t="inlineStr">
         <is>
           <t>3:00</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" s="18" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="12" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="O8" s="8" t="inlineStr">
+      <c r="O8" s="13" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - שמעון רגב</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="n"/>
-      <c r="S8" s="8" t="n"/>
-      <c r="T8" s="4" t="n"/>
-      <c r="Y8" s="2" t="n"/>
-      <c r="AB8" s="4" t="n"/>
+      <c r="Q8" s="18" t="n"/>
+      <c r="R8" s="12" t="n"/>
+      <c r="S8" s="13" t="n"/>
+      <c r="T8" s="19" t="n"/>
+      <c r="U8" s="18" t="n"/>
+      <c r="V8" s="12" t="n"/>
+      <c r="W8" s="12" t="n"/>
+      <c r="X8" s="19" t="n"/>
+      <c r="Y8" s="18" t="n"/>
+      <c r="Z8" s="12" t="n"/>
+      <c r="AA8" s="12" t="n"/>
+      <c r="AB8" s="19" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="L9" s="4" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="T9" s="4" t="n"/>
-      <c r="Y9" s="2" t="n"/>
-      <c r="AB9" s="4" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="18" t="n"/>
+      <c r="F9" s="12" t="n"/>
+      <c r="G9" s="12" t="n"/>
+      <c r="H9" s="19" t="n"/>
+      <c r="I9" s="18" t="n"/>
+      <c r="J9" s="12" t="n"/>
+      <c r="K9" s="12" t="n"/>
+      <c r="L9" s="19" t="n"/>
+      <c r="M9" s="18" t="n"/>
+      <c r="N9" s="12" t="n"/>
+      <c r="O9" s="12" t="n"/>
+      <c r="P9" s="19" t="n"/>
+      <c r="Q9" s="18" t="n"/>
+      <c r="R9" s="12" t="n"/>
+      <c r="S9" s="12" t="n"/>
+      <c r="T9" s="19" t="n"/>
+      <c r="U9" s="18" t="n"/>
+      <c r="V9" s="12" t="n"/>
+      <c r="W9" s="12" t="n"/>
+      <c r="X9" s="19" t="n"/>
+      <c r="Y9" s="18" t="n"/>
+      <c r="Z9" s="12" t="n"/>
+      <c r="AA9" s="12" t="n"/>
+      <c r="AB9" s="19" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="L10" s="4" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="T10" s="4" t="n"/>
-      <c r="Y10" s="2" t="n"/>
-      <c r="AB10" s="4" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="18" t="n"/>
+      <c r="F10" s="12" t="n"/>
+      <c r="G10" s="12" t="n"/>
+      <c r="H10" s="19" t="n"/>
+      <c r="I10" s="18" t="n"/>
+      <c r="J10" s="12" t="n"/>
+      <c r="K10" s="12" t="n"/>
+      <c r="L10" s="19" t="n"/>
+      <c r="M10" s="18" t="n"/>
+      <c r="N10" s="12" t="n"/>
+      <c r="O10" s="12" t="n"/>
+      <c r="P10" s="19" t="n"/>
+      <c r="Q10" s="18" t="n"/>
+      <c r="R10" s="12" t="n"/>
+      <c r="S10" s="12" t="n"/>
+      <c r="T10" s="19" t="n"/>
+      <c r="U10" s="18" t="n"/>
+      <c r="V10" s="12" t="n"/>
+      <c r="W10" s="12" t="n"/>
+      <c r="X10" s="19" t="n"/>
+      <c r="Y10" s="18" t="n"/>
+      <c r="Z10" s="12" t="n"/>
+      <c r="AA10" s="12" t="n"/>
+      <c r="AB10" s="19" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="L11" s="4" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="T11" s="4" t="n"/>
-      <c r="Y11" s="2" t="n"/>
-      <c r="AB11" s="4" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="18" t="n"/>
+      <c r="F11" s="12" t="n"/>
+      <c r="G11" s="12" t="n"/>
+      <c r="H11" s="19" t="n"/>
+      <c r="I11" s="18" t="n"/>
+      <c r="J11" s="12" t="n"/>
+      <c r="K11" s="12" t="n"/>
+      <c r="L11" s="19" t="n"/>
+      <c r="M11" s="18" t="n"/>
+      <c r="N11" s="12" t="n"/>
+      <c r="O11" s="12" t="n"/>
+      <c r="P11" s="19" t="n"/>
+      <c r="Q11" s="18" t="n"/>
+      <c r="R11" s="12" t="n"/>
+      <c r="S11" s="12" t="n"/>
+      <c r="T11" s="19" t="n"/>
+      <c r="U11" s="18" t="n"/>
+      <c r="V11" s="12" t="n"/>
+      <c r="W11" s="12" t="n"/>
+      <c r="X11" s="19" t="n"/>
+      <c r="Y11" s="18" t="n"/>
+      <c r="Z11" s="12" t="n"/>
+      <c r="AA11" s="12" t="n"/>
+      <c r="AB11" s="19" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="T12" s="4" t="n"/>
-      <c r="Y12" s="2" t="n"/>
-      <c r="AB12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="L13" s="4" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="T13" s="4" t="n"/>
-      <c r="Y13" s="2" t="n"/>
-      <c r="AB13" s="4" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="L14" s="4" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="T14" s="4" t="n"/>
-      <c r="Y14" s="2" t="n"/>
-      <c r="AB14" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="L15" s="4" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-      <c r="T15" s="4" t="n"/>
-      <c r="Y15" s="2" t="n"/>
-      <c r="AB15" s="4" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="L16" s="4" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="T16" s="4" t="n"/>
-      <c r="Y16" s="2" t="n"/>
-      <c r="AB16" s="4" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="L17" s="4" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="T17" s="4" t="n"/>
-      <c r="Y17" s="2" t="n"/>
-      <c r="AB17" s="4" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="T18" s="4" t="n"/>
-      <c r="Y18" s="2" t="n"/>
-      <c r="AB18" s="4" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="L19" s="4" t="n"/>
-      <c r="Q19" s="2" t="n"/>
-      <c r="T19" s="4" t="n"/>
-      <c r="Y19" s="2" t="n"/>
-      <c r="AB19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="L20" s="4" t="n"/>
-      <c r="Q20" s="2" t="n"/>
-      <c r="T20" s="4" t="n"/>
-      <c r="Y20" s="2" t="n"/>
-      <c r="AB20" s="4" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="L21" s="4" t="n"/>
-      <c r="Q21" s="2" t="n"/>
-      <c r="T21" s="4" t="n"/>
-      <c r="Y21" s="2" t="n"/>
-      <c r="AB21" s="4" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="L22" s="4" t="n"/>
-      <c r="Q22" s="2" t="n"/>
-      <c r="T22" s="4" t="n"/>
-      <c r="Y22" s="2" t="n"/>
-      <c r="AB22" s="4" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="3" thickBot="1">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="6" t="n"/>
-      <c r="H23" s="6" t="n"/>
-      <c r="I23" s="5" t="n"/>
-      <c r="J23" s="6" t="n"/>
-      <c r="K23" s="6" t="n"/>
-      <c r="L23" s="7" t="n"/>
-      <c r="M23" s="6" t="n"/>
-      <c r="N23" s="6" t="n"/>
-      <c r="O23" s="6" t="n"/>
-      <c r="P23" s="6" t="n"/>
-      <c r="Q23" s="5" t="n"/>
-      <c r="R23" s="6" t="n"/>
-      <c r="S23" s="6" t="n"/>
-      <c r="T23" s="7" t="n"/>
-      <c r="U23" s="6" t="n"/>
-      <c r="V23" s="6" t="n"/>
-      <c r="W23" s="6" t="n"/>
-      <c r="X23" s="6" t="n"/>
-      <c r="Y23" s="5" t="n"/>
-      <c r="Z23" s="6" t="n"/>
-      <c r="AA23" s="6" t="n"/>
-      <c r="AB23" s="7" t="n"/>
-    </row>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="18" t="n"/>
+      <c r="F12" s="12" t="n"/>
+      <c r="G12" s="12" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="18" t="n"/>
+      <c r="J12" s="12" t="n"/>
+      <c r="K12" s="12" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="18" t="n"/>
+      <c r="N12" s="12" t="n"/>
+      <c r="O12" s="12" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="18" t="n"/>
+      <c r="R12" s="12" t="n"/>
+      <c r="S12" s="12" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="18" t="n"/>
+      <c r="V12" s="12" t="n"/>
+      <c r="W12" s="12" t="n"/>
+      <c r="X12" s="19" t="n"/>
+      <c r="Y12" s="18" t="n"/>
+      <c r="Z12" s="12" t="n"/>
+      <c r="AA12" s="12" t="n"/>
+      <c r="AB12" s="19" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="20" t="n"/>
+      <c r="F13" s="21" t="n"/>
+      <c r="G13" s="21" t="n"/>
+      <c r="H13" s="22" t="n"/>
+      <c r="I13" s="20" t="n"/>
+      <c r="J13" s="21" t="n"/>
+      <c r="K13" s="21" t="n"/>
+      <c r="L13" s="22" t="n"/>
+      <c r="M13" s="20" t="n"/>
+      <c r="N13" s="21" t="n"/>
+      <c r="O13" s="21" t="n"/>
+      <c r="P13" s="22" t="n"/>
+      <c r="Q13" s="20" t="n"/>
+      <c r="R13" s="21" t="n"/>
+      <c r="S13" s="21" t="n"/>
+      <c r="T13" s="22" t="n"/>
+      <c r="U13" s="20" t="n"/>
+      <c r="V13" s="21" t="n"/>
+      <c r="W13" s="21" t="n"/>
+      <c r="X13" s="22" t="n"/>
+      <c r="Y13" s="20" t="n"/>
+      <c r="Z13" s="21" t="n"/>
+      <c r="AA13" s="21" t="n"/>
+      <c r="AB13" s="22" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="8"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="Y1:AB1"/>
@@ -3924,907 +3976,922 @@
   <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AB1"/>
+      <selection activeCell="X13" sqref="U3:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="5.6640625" customWidth="1" style="3" min="1" max="2"/>
-    <col width="16.77734375" customWidth="1" style="8" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="3" min="4" max="6"/>
-    <col width="16.6640625" customWidth="1" style="8" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="3" min="8" max="10"/>
-    <col width="17.21875" customWidth="1" style="8" min="11" max="11"/>
-    <col width="5.6640625" customWidth="1" style="3" min="12" max="14"/>
-    <col width="16.77734375" customWidth="1" style="8" min="15" max="15"/>
-    <col width="5.6640625" customWidth="1" style="3" min="16" max="18"/>
-    <col width="16.77734375" customWidth="1" style="8" min="19" max="19"/>
-    <col width="5.6640625" customWidth="1" style="3" min="20" max="22"/>
-    <col width="15.6640625" customWidth="1" style="8" min="23" max="23"/>
-    <col width="5.6640625" customWidth="1" style="3" min="24" max="28"/>
+    <col width="5.6640625" customWidth="1" style="8" min="1" max="2"/>
+    <col width="16.77734375" customWidth="1" style="9" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="8" min="4" max="6"/>
+    <col width="16.6640625" customWidth="1" style="9" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="8" min="8" max="10"/>
+    <col width="17.21875" customWidth="1" style="9" min="11" max="11"/>
+    <col width="5.6640625" customWidth="1" style="8" min="12" max="14"/>
+    <col width="16.77734375" customWidth="1" style="9" min="15" max="15"/>
+    <col width="5.6640625" customWidth="1" style="8" min="16" max="18"/>
+    <col width="16.77734375" customWidth="1" style="9" min="19" max="19"/>
+    <col width="5.6640625" customWidth="1" style="8" min="20" max="22"/>
+    <col width="15.6640625" customWidth="1" style="9" min="23" max="23"/>
+    <col width="5.6640625" customWidth="1" style="8" min="24" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="inlineStr">
+      <c r="A1" s="39" t="inlineStr">
         <is>
           <t>יום א</t>
         </is>
       </c>
-      <c r="B1" s="32" t="n"/>
-      <c r="C1" s="32" t="n"/>
-      <c r="D1" s="33" t="n"/>
-      <c r="E1" s="31" t="inlineStr">
+      <c r="B1" s="37" t="n"/>
+      <c r="C1" s="37" t="n"/>
+      <c r="D1" s="38" t="n"/>
+      <c r="E1" s="40" t="inlineStr">
         <is>
           <t>יום ב</t>
         </is>
       </c>
-      <c r="F1" s="32" t="n"/>
-      <c r="G1" s="32" t="n"/>
-      <c r="H1" s="33" t="n"/>
-      <c r="I1" s="27" t="inlineStr">
+      <c r="F1" s="37" t="n"/>
+      <c r="G1" s="37" t="n"/>
+      <c r="H1" s="38" t="n"/>
+      <c r="I1" s="36" t="inlineStr">
         <is>
           <t>יום ג</t>
         </is>
       </c>
-      <c r="J1" s="32" t="n"/>
-      <c r="K1" s="32" t="n"/>
-      <c r="L1" s="33" t="n"/>
-      <c r="M1" s="31" t="inlineStr">
+      <c r="J1" s="37" t="n"/>
+      <c r="K1" s="37" t="n"/>
+      <c r="L1" s="38" t="n"/>
+      <c r="M1" s="40" t="inlineStr">
         <is>
           <t>יום ד</t>
         </is>
       </c>
-      <c r="N1" s="32" t="n"/>
-      <c r="O1" s="32" t="n"/>
-      <c r="P1" s="33" t="n"/>
-      <c r="Q1" s="27" t="inlineStr">
+      <c r="N1" s="37" t="n"/>
+      <c r="O1" s="37" t="n"/>
+      <c r="P1" s="38" t="n"/>
+      <c r="Q1" s="36" t="inlineStr">
         <is>
           <t>יום ה</t>
         </is>
       </c>
-      <c r="R1" s="32" t="n"/>
-      <c r="S1" s="32" t="n"/>
-      <c r="T1" s="33" t="n"/>
-      <c r="U1" s="31" t="inlineStr">
+      <c r="R1" s="37" t="n"/>
+      <c r="S1" s="37" t="n"/>
+      <c r="T1" s="38" t="n"/>
+      <c r="U1" s="40" t="inlineStr">
         <is>
           <t>יום ו</t>
         </is>
       </c>
-      <c r="V1" s="32" t="n"/>
-      <c r="W1" s="32" t="n"/>
-      <c r="X1" s="33" t="n"/>
-      <c r="Y1" s="27" t="inlineStr">
+      <c r="V1" s="37" t="n"/>
+      <c r="W1" s="37" t="n"/>
+      <c r="X1" s="38" t="n"/>
+      <c r="Y1" s="36" t="inlineStr">
         <is>
           <t>יום שבת</t>
         </is>
       </c>
-      <c r="Z1" s="32" t="n"/>
-      <c r="AA1" s="32" t="n"/>
-      <c r="AB1" s="33" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="3" thickBot="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="Z1" s="37" t="n"/>
+      <c r="AA1" s="37" t="n"/>
+      <c r="AB1" s="38" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="G2" s="9" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="K2" s="9" t="inlineStr">
+      <c r="K2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="L2" s="7" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="N2" s="6" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="O2" s="9" t="inlineStr">
+      <c r="O2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="P2" s="6" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="Q2" s="5" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="R2" s="6" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="S2" s="9" t="inlineStr">
+      <c r="S2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="T2" s="7" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="U2" s="6" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="V2" s="6" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="W2" s="9" t="inlineStr">
+      <c r="W2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="X2" s="6" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="Z2" s="6" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="AA2" s="6" t="inlineStr">
+      <c r="AA2" s="5" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="AB2" s="7" t="inlineStr">
+      <c r="AB2" s="6" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="43.2" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="43.2" customHeight="1" s="8">
+      <c r="A3" s="14" t="inlineStr">
         <is>
           <t>11:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>חדוא 2 למדמח - מדמ"ח - ארקדי ליידרמן</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="17" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="16" t="inlineStr">
         <is>
           <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="17" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="15" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" s="16" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="17" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="15" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="O3" s="8" t="inlineStr">
+      <c r="O3" s="16" t="inlineStr">
         <is>
           <t>טיסת מבואות</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="17" t="inlineStr">
         <is>
           <t>13:0</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
+      <c r="Q3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="15" t="inlineStr">
         <is>
           <t>11:30</t>
         </is>
       </c>
-      <c r="S3" s="8" t="inlineStr">
+      <c r="S3" s="16" t="inlineStr">
         <is>
           <t>מבוא למחשבים למדעי המחשב - מדמ"ח - אילן שלום</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="17" t="inlineStr">
         <is>
           <t>3:30</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="14" t="inlineStr">
         <is>
           <t>11:30</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="15" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="W3" s="8" t="inlineStr">
+      <c r="W3" s="16" t="inlineStr">
         <is>
           <t>חומוסוף + מינגל</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="17" t="inlineStr">
         <is>
           <t>2:30</t>
         </is>
       </c>
       <c r="Y3" s="2" t="n"/>
-      <c r="AB3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="43.2" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="AB3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="43.2" customHeight="1" s="8">
+      <c r="A4" s="18" t="inlineStr">
         <is>
           <t>14:30</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>דת האסלאם והמזרח התיכון המודרני - סוגיות יסוד - אסף רגב</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="19" t="inlineStr">
         <is>
           <t>3:30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="18" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="G4" s="8" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="I4" s="18" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="12" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="K4" s="8" t="inlineStr">
+      <c r="K4" s="13" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="18" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="12" t="inlineStr">
         <is>
           <t>21:30</t>
         </is>
       </c>
-      <c r="O4" s="8" t="inlineStr">
+      <c r="O4" s="13" t="inlineStr">
         <is>
           <t>דת האסלאם והמזרח התיכון המודרני - סוגיות יסוד - אסף רגב</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="19" t="inlineStr">
         <is>
           <t>3:30</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="Q4" s="18" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="12" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="S4" s="8" t="inlineStr">
+      <c r="S4" s="13" t="inlineStr">
         <is>
           <t>חדוא 2 למדמח - מדמ"ח - ארקדי ליידרמן</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
+      <c r="U4" s="18" t="n"/>
+      <c r="V4" s="12" t="n"/>
+      <c r="W4" s="13" t="n"/>
+      <c r="X4" s="19" t="n"/>
       <c r="Y4" s="2" t="n"/>
-      <c r="AB4" s="4" t="n"/>
-    </row>
-    <row r="5" ht="43.2" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="AB4" s="3" t="n"/>
+    </row>
+    <row r="5" ht="43.2" customHeight="1" s="8">
+      <c r="A5" s="18" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>21:30</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>סוגיות בלוחמה אווירית - דני עוזיאל</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="19" t="inlineStr">
         <is>
           <t>3:00</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="18" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="12" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>ת. תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I5" s="18" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="12" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="K5" s="8" t="inlineStr">
+      <c r="K5" s="13" t="inlineStr">
         <is>
           <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
+      <c r="M5" s="18" t="n"/>
+      <c r="N5" s="12" t="n"/>
+      <c r="O5" s="13" t="n"/>
+      <c r="P5" s="19" t="n"/>
+      <c r="Q5" s="18" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="12" t="inlineStr">
         <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="S5" s="8" t="inlineStr">
+      <c r="S5" s="13" t="inlineStr">
         <is>
           <t>הגשת עבודה 4 בחדוא</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="19" t="inlineStr">
         <is>
           <t>0:30</t>
         </is>
       </c>
+      <c r="U5" s="18" t="n"/>
+      <c r="V5" s="12" t="n"/>
+      <c r="W5" s="13" t="n"/>
+      <c r="X5" s="19" t="n"/>
       <c r="Y5" s="2" t="n"/>
-      <c r="AB5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="43.2" customHeight="1" s="3">
-      <c r="A6" s="2" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" t="inlineStr">
+      <c r="AB5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="43.2" customHeight="1" s="8">
+      <c r="A6" s="18" t="n"/>
+      <c r="B6" s="12" t="n"/>
+      <c r="C6" s="13" t="n"/>
+      <c r="D6" s="19" t="n"/>
+      <c r="E6" s="18" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="G6" s="8" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="I6" s="18" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="12" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="K6" s="8" t="inlineStr">
+      <c r="K6" s="13" t="inlineStr">
         <is>
           <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="M6" s="18" t="n"/>
+      <c r="N6" s="12" t="n"/>
+      <c r="O6" s="13" t="n"/>
+      <c r="P6" s="19" t="n"/>
+      <c r="Q6" s="18" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="12" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="S6" s="8" t="inlineStr">
+      <c r="S6" s="13" t="inlineStr">
         <is>
           <t>תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
+      <c r="U6" s="18" t="n"/>
+      <c r="V6" s="12" t="n"/>
+      <c r="W6" s="13" t="n"/>
+      <c r="X6" s="19" t="n"/>
       <c r="Y6" s="2" t="n"/>
-      <c r="AB6" s="4" t="n"/>
-    </row>
-    <row r="7" ht="43.2" customHeight="1" s="3">
-      <c r="A7" s="2" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" t="inlineStr">
+      <c r="AB6" s="3" t="n"/>
+    </row>
+    <row r="7" ht="43.2" customHeight="1" s="8">
+      <c r="A7" s="18" t="n"/>
+      <c r="B7" s="12" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="19" t="n"/>
+      <c r="E7" s="18" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="G7" s="8" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
         <is>
           <t>ת. מבוא למחשבים למדעי המחשב - מדמ"ח - עמית אפרים</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="19" t="inlineStr">
         <is>
           <t>1:00</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="I7" s="18" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="K7" s="8" t="inlineStr">
+      <c r="K7" s="13" t="inlineStr">
         <is>
           <t>ת. מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="L7" s="19" t="inlineStr">
         <is>
           <t>1:00</t>
         </is>
       </c>
-      <c r="Q7" s="2" t="inlineStr">
+      <c r="M7" s="18" t="n"/>
+      <c r="N7" s="12" t="n"/>
+      <c r="O7" s="13" t="n"/>
+      <c r="P7" s="19" t="n"/>
+      <c r="Q7" s="18" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="12" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="S7" s="8" t="inlineStr">
+      <c r="S7" s="13" t="inlineStr">
         <is>
           <t>ת. תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
+      <c r="U7" s="18" t="n"/>
+      <c r="V7" s="12" t="n"/>
+      <c r="W7" s="13" t="n"/>
+      <c r="X7" s="19" t="n"/>
       <c r="Y7" s="2" t="n"/>
-      <c r="AB7" s="4" t="n"/>
-    </row>
-    <row r="8" ht="43.2" customHeight="1" s="3">
-      <c r="A8" s="2" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" t="inlineStr">
+      <c r="AB7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="43.2" customHeight="1" s="8">
+      <c r="A8" s="18" t="n"/>
+      <c r="B8" s="12" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="19" t="n"/>
+      <c r="E8" s="18" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="12" t="inlineStr">
         <is>
           <t>21:30</t>
         </is>
       </c>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>ת. מבני נתונים - מדמ"ח - רועי איזנשטדט</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="I8" s="18" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="12" t="inlineStr">
         <is>
           <t>21:30</t>
         </is>
       </c>
-      <c r="K8" s="8" t="inlineStr">
+      <c r="K8" s="13" t="inlineStr">
         <is>
           <t>מבוא למחשבים למדעי המחשב - מדמ"ח - אילן שלום</t>
         </is>
       </c>
-      <c r="L8" s="4" t="inlineStr">
+      <c r="L8" s="19" t="inlineStr">
         <is>
           <t>3:00</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="M8" s="18" t="n"/>
+      <c r="N8" s="12" t="n"/>
+      <c r="O8" s="13" t="n"/>
+      <c r="P8" s="19" t="n"/>
+      <c r="Q8" s="18" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="12" t="inlineStr">
         <is>
           <t>21:30</t>
         </is>
       </c>
-      <c r="S8" s="8" t="inlineStr">
+      <c r="S8" s="13" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - שמעון רגב</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
+      <c r="U8" s="18" t="n"/>
+      <c r="V8" s="12" t="n"/>
+      <c r="W8" s="13" t="n"/>
+      <c r="X8" s="19" t="n"/>
       <c r="Y8" s="2" t="n"/>
-      <c r="AB8" s="4" t="n"/>
+      <c r="AB8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="L9" s="4" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="T9" s="4" t="n"/>
+      <c r="A9" s="18" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="19" t="n"/>
+      <c r="E9" s="18" t="n"/>
+      <c r="F9" s="12" t="n"/>
+      <c r="G9" s="13" t="n"/>
+      <c r="H9" s="19" t="n"/>
+      <c r="I9" s="18" t="n"/>
+      <c r="J9" s="12" t="n"/>
+      <c r="K9" s="13" t="n"/>
+      <c r="L9" s="19" t="n"/>
+      <c r="M9" s="18" t="n"/>
+      <c r="N9" s="12" t="n"/>
+      <c r="O9" s="13" t="n"/>
+      <c r="P9" s="19" t="n"/>
+      <c r="Q9" s="18" t="n"/>
+      <c r="R9" s="12" t="n"/>
+      <c r="S9" s="13" t="n"/>
+      <c r="T9" s="19" t="n"/>
+      <c r="U9" s="18" t="n"/>
+      <c r="V9" s="12" t="n"/>
+      <c r="W9" s="13" t="n"/>
+      <c r="X9" s="19" t="n"/>
       <c r="Y9" s="2" t="n"/>
-      <c r="AB9" s="4" t="n"/>
+      <c r="AB9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="L10" s="4" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="T10" s="4" t="n"/>
+      <c r="A10" s="18" t="n"/>
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="19" t="n"/>
+      <c r="E10" s="18" t="n"/>
+      <c r="F10" s="12" t="n"/>
+      <c r="G10" s="13" t="n"/>
+      <c r="H10" s="19" t="n"/>
+      <c r="I10" s="18" t="n"/>
+      <c r="J10" s="12" t="n"/>
+      <c r="K10" s="13" t="n"/>
+      <c r="L10" s="19" t="n"/>
+      <c r="M10" s="18" t="n"/>
+      <c r="N10" s="12" t="n"/>
+      <c r="O10" s="13" t="n"/>
+      <c r="P10" s="19" t="n"/>
+      <c r="Q10" s="18" t="n"/>
+      <c r="R10" s="12" t="n"/>
+      <c r="S10" s="13" t="n"/>
+      <c r="T10" s="19" t="n"/>
+      <c r="U10" s="18" t="n"/>
+      <c r="V10" s="12" t="n"/>
+      <c r="W10" s="13" t="n"/>
+      <c r="X10" s="19" t="n"/>
       <c r="Y10" s="2" t="n"/>
-      <c r="AB10" s="4" t="n"/>
+      <c r="AB10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="L11" s="4" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="T11" s="4" t="n"/>
+      <c r="A11" s="18" t="n"/>
+      <c r="B11" s="12" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="19" t="n"/>
+      <c r="E11" s="18" t="n"/>
+      <c r="F11" s="12" t="n"/>
+      <c r="G11" s="13" t="n"/>
+      <c r="H11" s="19" t="n"/>
+      <c r="I11" s="18" t="n"/>
+      <c r="J11" s="12" t="n"/>
+      <c r="K11" s="13" t="n"/>
+      <c r="L11" s="19" t="n"/>
+      <c r="M11" s="18" t="n"/>
+      <c r="N11" s="12" t="n"/>
+      <c r="O11" s="13" t="n"/>
+      <c r="P11" s="19" t="n"/>
+      <c r="Q11" s="18" t="n"/>
+      <c r="R11" s="12" t="n"/>
+      <c r="S11" s="13" t="n"/>
+      <c r="T11" s="19" t="n"/>
+      <c r="U11" s="18" t="n"/>
+      <c r="V11" s="12" t="n"/>
+      <c r="W11" s="13" t="n"/>
+      <c r="X11" s="19" t="n"/>
       <c r="Y11" s="2" t="n"/>
-      <c r="AB11" s="4" t="n"/>
+      <c r="AB11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="T12" s="4" t="n"/>
+      <c r="A12" s="18" t="n"/>
+      <c r="B12" s="12" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="18" t="n"/>
+      <c r="F12" s="12" t="n"/>
+      <c r="G12" s="13" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="18" t="n"/>
+      <c r="J12" s="12" t="n"/>
+      <c r="K12" s="13" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="18" t="n"/>
+      <c r="N12" s="12" t="n"/>
+      <c r="O12" s="13" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="18" t="n"/>
+      <c r="R12" s="12" t="n"/>
+      <c r="S12" s="13" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="18" t="n"/>
+      <c r="V12" s="12" t="n"/>
+      <c r="W12" s="13" t="n"/>
+      <c r="X12" s="19" t="n"/>
       <c r="Y12" s="2" t="n"/>
-      <c r="AB12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="L13" s="4" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="T13" s="4" t="n"/>
-      <c r="Y13" s="2" t="n"/>
-      <c r="AB13" s="4" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="L14" s="4" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="T14" s="4" t="n"/>
-      <c r="Y14" s="2" t="n"/>
-      <c r="AB14" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="L15" s="4" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-      <c r="T15" s="4" t="n"/>
-      <c r="Y15" s="2" t="n"/>
-      <c r="AB15" s="4" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="L16" s="4" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="T16" s="4" t="n"/>
-      <c r="Y16" s="2" t="n"/>
-      <c r="AB16" s="4" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="L17" s="4" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="T17" s="4" t="n"/>
-      <c r="Y17" s="2" t="n"/>
-      <c r="AB17" s="4" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="T18" s="4" t="n"/>
-      <c r="Y18" s="2" t="n"/>
-      <c r="AB18" s="4" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="L19" s="4" t="n"/>
-      <c r="Q19" s="2" t="n"/>
-      <c r="T19" s="4" t="n"/>
-      <c r="Y19" s="2" t="n"/>
-      <c r="AB19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="L20" s="4" t="n"/>
-      <c r="Q20" s="2" t="n"/>
-      <c r="T20" s="4" t="n"/>
-      <c r="Y20" s="2" t="n"/>
-      <c r="AB20" s="4" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="L21" s="4" t="n"/>
-      <c r="Q21" s="2" t="n"/>
-      <c r="T21" s="4" t="n"/>
-      <c r="Y21" s="2" t="n"/>
-      <c r="AB21" s="4" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="L22" s="4" t="n"/>
-      <c r="Q22" s="2" t="n"/>
-      <c r="T22" s="4" t="n"/>
-      <c r="Y22" s="2" t="n"/>
-      <c r="AB22" s="4" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="3" thickBot="1">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="9" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="9" t="n"/>
-      <c r="H23" s="6" t="n"/>
-      <c r="I23" s="5" t="n"/>
-      <c r="J23" s="6" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="7" t="n"/>
-      <c r="M23" s="6" t="n"/>
-      <c r="N23" s="6" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="6" t="n"/>
-      <c r="Q23" s="5" t="n"/>
-      <c r="R23" s="6" t="n"/>
-      <c r="S23" s="9" t="n"/>
-      <c r="T23" s="7" t="n"/>
-      <c r="U23" s="6" t="n"/>
-      <c r="V23" s="6" t="n"/>
-      <c r="W23" s="9" t="n"/>
-      <c r="X23" s="6" t="n"/>
-      <c r="Y23" s="5" t="n"/>
-      <c r="Z23" s="6" t="n"/>
-      <c r="AA23" s="6" t="n"/>
-      <c r="AB23" s="7" t="n"/>
-    </row>
-    <row r="43" ht="43.2" customHeight="1" s="3">
+      <c r="AB12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A13" s="20" t="n"/>
+      <c r="B13" s="21" t="n"/>
+      <c r="C13" s="29" t="n"/>
+      <c r="D13" s="22" t="n"/>
+      <c r="E13" s="20" t="n"/>
+      <c r="F13" s="21" t="n"/>
+      <c r="G13" s="29" t="n"/>
+      <c r="H13" s="22" t="n"/>
+      <c r="I13" s="20" t="n"/>
+      <c r="J13" s="21" t="n"/>
+      <c r="K13" s="29" t="n"/>
+      <c r="L13" s="22" t="n"/>
+      <c r="M13" s="20" t="n"/>
+      <c r="N13" s="21" t="n"/>
+      <c r="O13" s="29" t="n"/>
+      <c r="P13" s="22" t="n"/>
+      <c r="Q13" s="20" t="n"/>
+      <c r="R13" s="21" t="n"/>
+      <c r="S13" s="29" t="n"/>
+      <c r="T13" s="22" t="n"/>
+      <c r="U13" s="20" t="n"/>
+      <c r="V13" s="21" t="n"/>
+      <c r="W13" s="29" t="n"/>
+      <c r="X13" s="22" t="n"/>
+      <c r="Y13" s="4" t="n"/>
+      <c r="Z13" s="5" t="n"/>
+      <c r="AA13" s="5" t="n"/>
+      <c r="AB13" s="6" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="8"/>
+    <row r="43" ht="43.2" customHeight="1" s="8">
       <c r="E43" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -4835,7 +4902,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="G43" s="8" t="inlineStr">
+      <c r="G43" s="9" t="inlineStr">
         <is>
           <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
@@ -4846,7 +4913,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="28.8" customHeight="1" s="3">
+    <row r="44" ht="28.8" customHeight="1" s="8">
       <c r="E44" t="inlineStr">
         <is>
           <t>10:00</t>
@@ -4857,7 +4924,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="G44" s="8" t="inlineStr">
+      <c r="G44" s="9" t="inlineStr">
         <is>
           <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
@@ -4868,7 +4935,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="43.2" customHeight="1" s="3">
+    <row r="45" ht="43.2" customHeight="1" s="8">
       <c r="E45" t="inlineStr">
         <is>
           <t>13:00</t>
@@ -4879,7 +4946,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="G45" s="8" t="inlineStr">
+      <c r="G45" s="9" t="inlineStr">
         <is>
           <t>ת. תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
@@ -4890,7 +4957,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="43.2" customHeight="1" s="3">
+    <row r="46" ht="43.2" customHeight="1" s="8">
       <c r="E46" t="inlineStr">
         <is>
           <t>15:00</t>
@@ -4901,7 +4968,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="G46" s="8" t="inlineStr">
+      <c r="G46" s="9" t="inlineStr">
         <is>
           <t>תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
@@ -4912,7 +4979,7 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="43.2" customHeight="1" s="3">
+    <row r="47" ht="43.2" customHeight="1" s="8">
       <c r="E47" t="inlineStr">
         <is>
           <t>17:00</t>
@@ -4923,7 +4990,7 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="G47" s="8" t="inlineStr">
+      <c r="G47" s="9" t="inlineStr">
         <is>
           <t>ת. מבוא למחשבים למדעי המחשב - מדמ"ח - עמית אפרים</t>
         </is>
@@ -4934,7 +5001,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="43.2" customHeight="1" s="3">
+    <row r="48" ht="43.2" customHeight="1" s="8">
       <c r="E48" t="inlineStr">
         <is>
           <t>19:30</t>
@@ -4945,7 +5012,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="G48" s="8" t="inlineStr">
+      <c r="G48" s="9" t="inlineStr">
         <is>
           <t>ת. מבני נתונים - מדמ"ח - רועי איזנשטדט</t>
         </is>
@@ -4956,7 +5023,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="43.2" customHeight="1" s="3">
+    <row r="49" ht="43.2" customHeight="1" s="8">
       <c r="I49" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -4967,7 +5034,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="K49" s="8" t="inlineStr">
+      <c r="K49" s="9" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
         </is>
@@ -4978,7 +5045,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="43.2" customHeight="1" s="3">
+    <row r="50" ht="43.2" customHeight="1" s="8">
       <c r="I50" t="inlineStr">
         <is>
           <t>10:00</t>
@@ -4989,7 +5056,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="K50" s="8" t="inlineStr">
+      <c r="K50" s="9" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
         </is>
@@ -5000,7 +5067,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="28.8" customHeight="1" s="3">
+    <row r="51" ht="28.8" customHeight="1" s="8">
       <c r="I51" t="inlineStr">
         <is>
           <t>13:00</t>
@@ -5011,7 +5078,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="K51" s="8" t="inlineStr">
+      <c r="K51" s="9" t="inlineStr">
         <is>
           <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
@@ -5022,7 +5089,7 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="43.2" customHeight="1" s="3">
+    <row r="52" ht="43.2" customHeight="1" s="8">
       <c r="I52" t="inlineStr">
         <is>
           <t>15:00</t>
@@ -5033,7 +5100,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="K52" s="8" t="inlineStr">
+      <c r="K52" s="9" t="inlineStr">
         <is>
           <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
@@ -5044,7 +5111,7 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="43.2" customHeight="1" s="3">
+    <row r="53" ht="43.2" customHeight="1" s="8">
       <c r="I53" t="inlineStr">
         <is>
           <t>17:00</t>
@@ -5055,7 +5122,7 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="K53" s="8" t="inlineStr">
+      <c r="K53" s="9" t="inlineStr">
         <is>
           <t>ת. מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
@@ -5066,7 +5133,7 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="43.2" customHeight="1" s="3">
+    <row r="54" ht="43.2" customHeight="1" s="8">
       <c r="I54" t="inlineStr">
         <is>
           <t>18:30</t>
@@ -5077,7 +5144,7 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="K54" s="8" t="inlineStr">
+      <c r="K54" s="9" t="inlineStr">
         <is>
           <t>מבוא למחשבים למדעי המחשב - מדמ"ח - אילן שלום</t>
         </is>
@@ -5108,853 +5175,898 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AB1"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="5.33203125" customWidth="1" style="3" min="1" max="2"/>
-    <col width="19.88671875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="5.33203125" customWidth="1" style="3" min="4" max="6"/>
-    <col width="19.88671875" customWidth="1" style="8" min="7" max="7"/>
-    <col width="5.33203125" customWidth="1" style="3" min="8" max="10"/>
-    <col width="19.88671875" customWidth="1" style="8" min="11" max="11"/>
-    <col width="5.33203125" customWidth="1" style="3" min="12" max="14"/>
-    <col width="19.88671875" customWidth="1" style="8" min="15" max="15"/>
-    <col width="5.33203125" customWidth="1" style="3" min="16" max="18"/>
-    <col width="19.88671875" customWidth="1" style="8" min="19" max="19"/>
-    <col width="5.33203125" customWidth="1" style="3" min="20" max="22"/>
-    <col width="19.88671875" customWidth="1" style="8" min="23" max="23"/>
-    <col width="5.33203125" customWidth="1" style="3" min="24" max="26"/>
-    <col width="19.88671875" customWidth="1" style="8" min="27" max="27"/>
-    <col width="5.33203125" customWidth="1" style="3" min="28" max="28"/>
+    <col width="5.33203125" customWidth="1" style="8" min="1" max="2"/>
+    <col width="19.88671875" customWidth="1" style="9" min="3" max="3"/>
+    <col width="5.33203125" customWidth="1" style="8" min="4" max="6"/>
+    <col width="19.88671875" customWidth="1" style="9" min="7" max="7"/>
+    <col width="5.33203125" customWidth="1" style="8" min="8" max="10"/>
+    <col width="19.88671875" customWidth="1" style="9" min="11" max="11"/>
+    <col width="5.33203125" customWidth="1" style="8" min="12" max="14"/>
+    <col width="19.88671875" customWidth="1" style="9" min="15" max="15"/>
+    <col width="5.33203125" customWidth="1" style="8" min="16" max="18"/>
+    <col width="19.88671875" customWidth="1" style="9" min="19" max="19"/>
+    <col width="5.33203125" customWidth="1" style="8" min="20" max="22"/>
+    <col width="19.88671875" customWidth="1" style="9" min="23" max="23"/>
+    <col width="5.33203125" customWidth="1" style="8" min="24" max="26"/>
+    <col width="19.88671875" customWidth="1" style="9" min="27" max="27"/>
+    <col width="5.33203125" customWidth="1" style="8" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="inlineStr">
+      <c r="A1" s="39" t="inlineStr">
         <is>
           <t>יום א</t>
         </is>
       </c>
-      <c r="B1" s="32" t="n"/>
-      <c r="C1" s="32" t="n"/>
-      <c r="D1" s="33" t="n"/>
-      <c r="E1" s="31" t="inlineStr">
+      <c r="B1" s="37" t="n"/>
+      <c r="C1" s="37" t="n"/>
+      <c r="D1" s="38" t="n"/>
+      <c r="E1" s="40" t="inlineStr">
         <is>
           <t>יום ב</t>
         </is>
       </c>
-      <c r="F1" s="32" t="n"/>
-      <c r="G1" s="32" t="n"/>
-      <c r="H1" s="33" t="n"/>
-      <c r="I1" s="27" t="inlineStr">
+      <c r="F1" s="37" t="n"/>
+      <c r="G1" s="37" t="n"/>
+      <c r="H1" s="38" t="n"/>
+      <c r="I1" s="36" t="inlineStr">
         <is>
           <t>יום ג</t>
         </is>
       </c>
-      <c r="J1" s="32" t="n"/>
-      <c r="K1" s="32" t="n"/>
-      <c r="L1" s="33" t="n"/>
-      <c r="M1" s="31" t="inlineStr">
+      <c r="J1" s="37" t="n"/>
+      <c r="K1" s="37" t="n"/>
+      <c r="L1" s="38" t="n"/>
+      <c r="M1" s="40" t="inlineStr">
         <is>
           <t>יום ד</t>
         </is>
       </c>
-      <c r="N1" s="32" t="n"/>
-      <c r="O1" s="32" t="n"/>
-      <c r="P1" s="33" t="n"/>
-      <c r="Q1" s="27" t="inlineStr">
+      <c r="N1" s="37" t="n"/>
+      <c r="O1" s="37" t="n"/>
+      <c r="P1" s="38" t="n"/>
+      <c r="Q1" s="36" t="inlineStr">
         <is>
           <t>יום ה</t>
         </is>
       </c>
-      <c r="R1" s="32" t="n"/>
-      <c r="S1" s="32" t="n"/>
-      <c r="T1" s="33" t="n"/>
-      <c r="U1" s="31" t="inlineStr">
+      <c r="R1" s="37" t="n"/>
+      <c r="S1" s="37" t="n"/>
+      <c r="T1" s="38" t="n"/>
+      <c r="U1" s="40" t="inlineStr">
         <is>
           <t>יום ו</t>
         </is>
       </c>
-      <c r="V1" s="32" t="n"/>
-      <c r="W1" s="32" t="n"/>
-      <c r="X1" s="33" t="n"/>
-      <c r="Y1" s="27" t="inlineStr">
+      <c r="V1" s="37" t="n"/>
+      <c r="W1" s="37" t="n"/>
+      <c r="X1" s="38" t="n"/>
+      <c r="Y1" s="36" t="inlineStr">
         <is>
           <t>יום שבת</t>
         </is>
       </c>
-      <c r="Z1" s="32" t="n"/>
-      <c r="AA1" s="32" t="n"/>
-      <c r="AB1" s="33" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="3" thickBot="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="Z1" s="37" t="n"/>
+      <c r="AA1" s="37" t="n"/>
+      <c r="AB1" s="38" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="G2" s="9" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="K2" s="9" t="inlineStr">
+      <c r="K2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="L2" s="7" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="N2" s="6" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="O2" s="9" t="inlineStr">
+      <c r="O2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="P2" s="6" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="Q2" s="5" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="R2" s="6" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="S2" s="9" t="inlineStr">
+      <c r="S2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="T2" s="7" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="U2" s="6" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="V2" s="6" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="W2" s="9" t="inlineStr">
+      <c r="W2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="X2" s="6" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="Z2" s="6" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="AA2" s="9" t="inlineStr">
+      <c r="AA2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="AB2" s="7" t="inlineStr">
+      <c r="AB2" s="6" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="43.2" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="43.2" customHeight="1" s="8">
+      <c r="A3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>ת. מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="17" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="16" t="inlineStr">
         <is>
           <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="17" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="15" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" s="16" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="17" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="15" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="O3" s="8" t="inlineStr">
+      <c r="O3" s="16" t="inlineStr">
         <is>
           <t>יום ספורט + ערב קסקטים</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="17" t="inlineStr">
         <is>
           <t>13:0</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
+      <c r="Q3" s="14" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="15" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="S3" s="8" t="inlineStr">
+      <c r="S3" s="16" t="inlineStr">
         <is>
           <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="17" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Y3" s="2" t="n"/>
-      <c r="AB3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="43.2" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="U3" s="14" t="n"/>
+      <c r="V3" s="15" t="n"/>
+      <c r="W3" s="16" t="n"/>
+      <c r="X3" s="17" t="n"/>
+      <c r="Y3" s="14" t="n"/>
+      <c r="Z3" s="15" t="n"/>
+      <c r="AA3" s="16" t="n"/>
+      <c r="AB3" s="17" t="n"/>
+    </row>
+    <row r="4" ht="43.2" customHeight="1" s="8">
+      <c r="A4" s="18" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="19" t="inlineStr">
         <is>
           <t>1:00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="18" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="G4" s="8" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="I4" s="18" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="12" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="K4" s="8" t="inlineStr">
+      <c r="K4" s="13" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="M4" s="18" t="n"/>
+      <c r="N4" s="12" t="n"/>
+      <c r="O4" s="13" t="n"/>
+      <c r="P4" s="19" t="n"/>
+      <c r="Q4" s="18" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="12" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="S4" s="8" t="inlineStr">
+      <c r="S4" s="13" t="inlineStr">
         <is>
           <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Y4" s="2" t="n"/>
-      <c r="AB4" s="4" t="n"/>
-    </row>
-    <row r="5" ht="43.2" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="U4" s="18" t="n"/>
+      <c r="V4" s="12" t="n"/>
+      <c r="W4" s="13" t="n"/>
+      <c r="X4" s="19" t="n"/>
+      <c r="Y4" s="18" t="n"/>
+      <c r="Z4" s="12" t="n"/>
+      <c r="AA4" s="13" t="n"/>
+      <c r="AB4" s="19" t="n"/>
+    </row>
+    <row r="5" ht="43.2" customHeight="1" s="8">
+      <c r="A5" s="18" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="19" t="inlineStr">
         <is>
           <t>3:30</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="18" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="12" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>ת. תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I5" s="18" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="12" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
-      <c r="K5" s="8" t="inlineStr">
+      <c r="K5" s="13" t="inlineStr">
         <is>
           <t>מבוא למחשבים למדעי המחשב - מדמ"ח - אילן שלום</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="19" t="inlineStr">
         <is>
           <t>3:00</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
+      <c r="M5" s="18" t="n"/>
+      <c r="N5" s="12" t="n"/>
+      <c r="O5" s="13" t="n"/>
+      <c r="P5" s="19" t="n"/>
+      <c r="Q5" s="18" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="12" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="S5" s="8" t="inlineStr">
+      <c r="S5" s="13" t="inlineStr">
         <is>
           <t>תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Y5" s="2" t="n"/>
-      <c r="AB5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="28.8" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="U5" s="18" t="n"/>
+      <c r="V5" s="12" t="n"/>
+      <c r="W5" s="13" t="n"/>
+      <c r="X5" s="19" t="n"/>
+      <c r="Y5" s="18" t="n"/>
+      <c r="Z5" s="12" t="n"/>
+      <c r="AA5" s="13" t="n"/>
+      <c r="AB5" s="19" t="n"/>
+    </row>
+    <row r="6" ht="28.8" customHeight="1" s="8">
+      <c r="A6" s="18" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C6" s="13" t="inlineStr">
         <is>
           <t>ת. תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="19" t="inlineStr">
         <is>
           <t>1:00</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="18" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="G6" s="8" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n"/>
-      <c r="L6" s="4" t="n"/>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="I6" s="18" t="n"/>
+      <c r="J6" s="12" t="n"/>
+      <c r="K6" s="13" t="n"/>
+      <c r="L6" s="19" t="n"/>
+      <c r="M6" s="18" t="n"/>
+      <c r="N6" s="12" t="n"/>
+      <c r="O6" s="13" t="n"/>
+      <c r="P6" s="19" t="n"/>
+      <c r="Q6" s="18" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="12" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="S6" s="8" t="inlineStr">
+      <c r="S6" s="13" t="inlineStr">
         <is>
           <t>ת. תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Y6" s="2" t="n"/>
-      <c r="AB6" s="4" t="n"/>
-    </row>
-    <row r="7" ht="43.2" customHeight="1" s="3">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="U6" s="18" t="n"/>
+      <c r="V6" s="12" t="n"/>
+      <c r="W6" s="13" t="n"/>
+      <c r="X6" s="19" t="n"/>
+      <c r="Y6" s="18" t="n"/>
+      <c r="Z6" s="12" t="n"/>
+      <c r="AA6" s="13" t="n"/>
+      <c r="AB6" s="19" t="n"/>
+    </row>
+    <row r="7" ht="43.2" customHeight="1" s="8">
+      <c r="A7" s="18" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="13" t="inlineStr">
         <is>
           <t>חדוא 2 למדמח - מדמ"ח - ארקדי ליידרמן</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="18" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="G7" s="8" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
         <is>
           <t>ת. מבוא למחשבים למדעי המחשב - מדמ"ח - עמית אפרים</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="19" t="inlineStr">
         <is>
           <t>1:00</t>
         </is>
       </c>
-      <c r="I7" s="2" t="n"/>
-      <c r="L7" s="4" t="n"/>
-      <c r="Q7" s="2" t="inlineStr">
+      <c r="I7" s="18" t="n"/>
+      <c r="J7" s="12" t="n"/>
+      <c r="K7" s="13" t="n"/>
+      <c r="L7" s="19" t="n"/>
+      <c r="M7" s="18" t="n"/>
+      <c r="N7" s="12" t="n"/>
+      <c r="O7" s="13" t="n"/>
+      <c r="P7" s="19" t="n"/>
+      <c r="Q7" s="18" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="12" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="S7" s="8" t="inlineStr">
+      <c r="S7" s="13" t="inlineStr">
         <is>
           <t>ללא לימודים</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="19" t="inlineStr">
         <is>
           <t>4:00</t>
         </is>
       </c>
-      <c r="Y7" s="2" t="n"/>
-      <c r="AB7" s="4" t="n"/>
-    </row>
-    <row r="8" ht="43.2" customHeight="1" s="3">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="U7" s="18" t="n"/>
+      <c r="V7" s="12" t="n"/>
+      <c r="W7" s="13" t="n"/>
+      <c r="X7" s="19" t="n"/>
+      <c r="Y7" s="18" t="n"/>
+      <c r="Z7" s="12" t="n"/>
+      <c r="AA7" s="13" t="n"/>
+      <c r="AB7" s="19" t="n"/>
+    </row>
+    <row r="8" ht="43.2" customHeight="1" s="8">
+      <c r="A8" s="18" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="13" t="inlineStr">
         <is>
           <t>מסיביסט</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="19" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="18" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="12" t="inlineStr">
         <is>
           <t>21:30</t>
         </is>
       </c>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>דת האסלאם והמזרח התיכון המודרני - סוגיות יסוד - אסף רגב</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="19" t="inlineStr">
         <is>
           <t>2:30</t>
         </is>
       </c>
-      <c r="I8" s="2" t="n"/>
-      <c r="L8" s="4" t="n"/>
-      <c r="Q8" s="2" t="n"/>
-      <c r="T8" s="4" t="n"/>
-      <c r="Y8" s="2" t="n"/>
-      <c r="AB8" s="4" t="n"/>
+      <c r="I8" s="18" t="n"/>
+      <c r="J8" s="12" t="n"/>
+      <c r="K8" s="13" t="n"/>
+      <c r="L8" s="19" t="n"/>
+      <c r="M8" s="18" t="n"/>
+      <c r="N8" s="12" t="n"/>
+      <c r="O8" s="13" t="n"/>
+      <c r="P8" s="19" t="n"/>
+      <c r="Q8" s="18" t="n"/>
+      <c r="R8" s="12" t="n"/>
+      <c r="S8" s="13" t="n"/>
+      <c r="T8" s="19" t="n"/>
+      <c r="U8" s="18" t="n"/>
+      <c r="V8" s="12" t="n"/>
+      <c r="W8" s="13" t="n"/>
+      <c r="X8" s="19" t="n"/>
+      <c r="Y8" s="18" t="n"/>
+      <c r="Z8" s="12" t="n"/>
+      <c r="AA8" s="13" t="n"/>
+      <c r="AB8" s="19" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="L9" s="4" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="T9" s="4" t="n"/>
-      <c r="Y9" s="2" t="n"/>
-      <c r="AB9" s="4" t="n"/>
+      <c r="A9" s="18" t="n"/>
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="19" t="n"/>
+      <c r="E9" s="18" t="n"/>
+      <c r="F9" s="12" t="n"/>
+      <c r="G9" s="13" t="n"/>
+      <c r="H9" s="19" t="n"/>
+      <c r="I9" s="18" t="n"/>
+      <c r="J9" s="12" t="n"/>
+      <c r="K9" s="13" t="n"/>
+      <c r="L9" s="19" t="n"/>
+      <c r="M9" s="18" t="n"/>
+      <c r="N9" s="12" t="n"/>
+      <c r="O9" s="13" t="n"/>
+      <c r="P9" s="19" t="n"/>
+      <c r="Q9" s="18" t="n"/>
+      <c r="R9" s="12" t="n"/>
+      <c r="S9" s="13" t="n"/>
+      <c r="T9" s="19" t="n"/>
+      <c r="U9" s="18" t="n"/>
+      <c r="V9" s="12" t="n"/>
+      <c r="W9" s="13" t="n"/>
+      <c r="X9" s="19" t="n"/>
+      <c r="Y9" s="18" t="n"/>
+      <c r="Z9" s="12" t="n"/>
+      <c r="AA9" s="13" t="n"/>
+      <c r="AB9" s="19" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="L10" s="4" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="T10" s="4" t="n"/>
-      <c r="Y10" s="2" t="n"/>
-      <c r="AB10" s="4" t="n"/>
+      <c r="A10" s="18" t="n"/>
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="19" t="n"/>
+      <c r="E10" s="18" t="n"/>
+      <c r="F10" s="12" t="n"/>
+      <c r="G10" s="13" t="n"/>
+      <c r="H10" s="19" t="n"/>
+      <c r="I10" s="18" t="n"/>
+      <c r="J10" s="12" t="n"/>
+      <c r="K10" s="13" t="n"/>
+      <c r="L10" s="19" t="n"/>
+      <c r="M10" s="18" t="n"/>
+      <c r="N10" s="12" t="n"/>
+      <c r="O10" s="13" t="n"/>
+      <c r="P10" s="19" t="n"/>
+      <c r="Q10" s="18" t="n"/>
+      <c r="R10" s="12" t="n"/>
+      <c r="S10" s="13" t="n"/>
+      <c r="T10" s="19" t="n"/>
+      <c r="U10" s="18" t="n"/>
+      <c r="V10" s="12" t="n"/>
+      <c r="W10" s="13" t="n"/>
+      <c r="X10" s="19" t="n"/>
+      <c r="Y10" s="18" t="n"/>
+      <c r="Z10" s="12" t="n"/>
+      <c r="AA10" s="13" t="n"/>
+      <c r="AB10" s="19" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="L11" s="4" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="T11" s="4" t="n"/>
-      <c r="Y11" s="2" t="n"/>
-      <c r="AB11" s="4" t="n"/>
+      <c r="A11" s="18" t="n"/>
+      <c r="B11" s="12" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="19" t="n"/>
+      <c r="E11" s="18" t="n"/>
+      <c r="F11" s="12" t="n"/>
+      <c r="G11" s="13" t="n"/>
+      <c r="H11" s="19" t="n"/>
+      <c r="I11" s="18" t="n"/>
+      <c r="J11" s="12" t="n"/>
+      <c r="K11" s="13" t="n"/>
+      <c r="L11" s="19" t="n"/>
+      <c r="M11" s="18" t="n"/>
+      <c r="N11" s="12" t="n"/>
+      <c r="O11" s="13" t="n"/>
+      <c r="P11" s="19" t="n"/>
+      <c r="Q11" s="18" t="n"/>
+      <c r="R11" s="12" t="n"/>
+      <c r="S11" s="13" t="n"/>
+      <c r="T11" s="19" t="n"/>
+      <c r="U11" s="18" t="n"/>
+      <c r="V11" s="12" t="n"/>
+      <c r="W11" s="13" t="n"/>
+      <c r="X11" s="19" t="n"/>
+      <c r="Y11" s="18" t="n"/>
+      <c r="Z11" s="12" t="n"/>
+      <c r="AA11" s="13" t="n"/>
+      <c r="AB11" s="19" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="T12" s="4" t="n"/>
-      <c r="Y12" s="2" t="n"/>
-      <c r="AB12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="L13" s="4" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="T13" s="4" t="n"/>
-      <c r="Y13" s="2" t="n"/>
-      <c r="AB13" s="4" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="L14" s="4" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="T14" s="4" t="n"/>
-      <c r="Y14" s="2" t="n"/>
-      <c r="AB14" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="L15" s="4" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-      <c r="T15" s="4" t="n"/>
-      <c r="Y15" s="2" t="n"/>
-      <c r="AB15" s="4" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="L16" s="4" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="T16" s="4" t="n"/>
-      <c r="Y16" s="2" t="n"/>
-      <c r="AB16" s="4" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="L17" s="4" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="T17" s="4" t="n"/>
-      <c r="Y17" s="2" t="n"/>
-      <c r="AB17" s="4" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="T18" s="4" t="n"/>
-      <c r="Y18" s="2" t="n"/>
-      <c r="AB18" s="4" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="L19" s="4" t="n"/>
-      <c r="Q19" s="2" t="n"/>
-      <c r="T19" s="4" t="n"/>
-      <c r="Y19" s="2" t="n"/>
-      <c r="AB19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="L20" s="4" t="n"/>
-      <c r="Q20" s="2" t="n"/>
-      <c r="T20" s="4" t="n"/>
-      <c r="Y20" s="2" t="n"/>
-      <c r="AB20" s="4" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="L21" s="4" t="n"/>
-      <c r="Q21" s="2" t="n"/>
-      <c r="T21" s="4" t="n"/>
-      <c r="Y21" s="2" t="n"/>
-      <c r="AB21" s="4" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="L22" s="4" t="n"/>
-      <c r="Q22" s="2" t="n"/>
-      <c r="T22" s="4" t="n"/>
-      <c r="Y22" s="2" t="n"/>
-      <c r="AB22" s="4" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="3" thickBot="1">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="9" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="9" t="n"/>
-      <c r="H23" s="6" t="n"/>
-      <c r="I23" s="5" t="n"/>
-      <c r="J23" s="6" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="7" t="n"/>
-      <c r="M23" s="6" t="n"/>
-      <c r="N23" s="6" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="6" t="n"/>
-      <c r="Q23" s="5" t="n"/>
-      <c r="R23" s="6" t="n"/>
-      <c r="S23" s="9" t="n"/>
-      <c r="T23" s="7" t="n"/>
-      <c r="U23" s="6" t="n"/>
-      <c r="V23" s="6" t="n"/>
-      <c r="W23" s="9" t="n"/>
-      <c r="X23" s="6" t="n"/>
-      <c r="Y23" s="5" t="n"/>
-      <c r="Z23" s="6" t="n"/>
-      <c r="AA23" s="9" t="n"/>
-      <c r="AB23" s="7" t="n"/>
-    </row>
+      <c r="A12" s="18" t="n"/>
+      <c r="B12" s="12" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="19" t="n"/>
+      <c r="E12" s="18" t="n"/>
+      <c r="F12" s="12" t="n"/>
+      <c r="G12" s="13" t="n"/>
+      <c r="H12" s="19" t="n"/>
+      <c r="I12" s="18" t="n"/>
+      <c r="J12" s="12" t="n"/>
+      <c r="K12" s="13" t="n"/>
+      <c r="L12" s="19" t="n"/>
+      <c r="M12" s="18" t="n"/>
+      <c r="N12" s="12" t="n"/>
+      <c r="O12" s="13" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="18" t="n"/>
+      <c r="R12" s="12" t="n"/>
+      <c r="S12" s="13" t="n"/>
+      <c r="T12" s="19" t="n"/>
+      <c r="U12" s="18" t="n"/>
+      <c r="V12" s="12" t="n"/>
+      <c r="W12" s="13" t="n"/>
+      <c r="X12" s="19" t="n"/>
+      <c r="Y12" s="18" t="n"/>
+      <c r="Z12" s="12" t="n"/>
+      <c r="AA12" s="13" t="n"/>
+      <c r="AB12" s="19" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A13" s="20" t="n"/>
+      <c r="B13" s="21" t="n"/>
+      <c r="C13" s="29" t="n"/>
+      <c r="D13" s="22" t="n"/>
+      <c r="E13" s="20" t="n"/>
+      <c r="F13" s="21" t="n"/>
+      <c r="G13" s="29" t="n"/>
+      <c r="H13" s="22" t="n"/>
+      <c r="I13" s="20" t="n"/>
+      <c r="J13" s="21" t="n"/>
+      <c r="K13" s="29" t="n"/>
+      <c r="L13" s="22" t="n"/>
+      <c r="M13" s="20" t="n"/>
+      <c r="N13" s="21" t="n"/>
+      <c r="O13" s="29" t="n"/>
+      <c r="P13" s="22" t="n"/>
+      <c r="Q13" s="20" t="n"/>
+      <c r="R13" s="21" t="n"/>
+      <c r="S13" s="29" t="n"/>
+      <c r="T13" s="22" t="n"/>
+      <c r="U13" s="20" t="n"/>
+      <c r="V13" s="21" t="n"/>
+      <c r="W13" s="29" t="n"/>
+      <c r="X13" s="22" t="n"/>
+      <c r="Y13" s="20" t="n"/>
+      <c r="Z13" s="21" t="n"/>
+      <c r="AA13" s="29" t="n"/>
+      <c r="AB13" s="22" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="8"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="Y1:AB1"/>
@@ -5975,963 +6087,919 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AB1"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="5.33203125" customWidth="1" style="9" min="1" max="2"/>
+    <col width="13.6640625" customWidth="1" style="9" min="3" max="3"/>
+    <col width="6.88671875" customWidth="1" style="9" min="4" max="4"/>
+    <col width="5.21875" customWidth="1" style="9" min="5" max="5"/>
+    <col width="5" customWidth="1" style="9" min="6" max="6"/>
+    <col width="13.77734375" customWidth="1" style="9" min="7" max="7"/>
+    <col width="4.77734375" customWidth="1" style="9" min="8" max="8"/>
+    <col width="5.33203125" customWidth="1" style="9" min="9" max="10"/>
+    <col width="14.88671875" customWidth="1" style="9" min="11" max="11"/>
+    <col width="4.6640625" customWidth="1" style="9" min="12" max="12"/>
+    <col width="5.44140625" customWidth="1" style="9" min="13" max="13"/>
+    <col width="5.21875" customWidth="1" style="9" min="14" max="14"/>
+    <col width="14.6640625" customWidth="1" style="9" min="15" max="15"/>
+    <col width="4.44140625" customWidth="1" style="9" min="16" max="16"/>
+    <col width="5" customWidth="1" style="9" min="17" max="17"/>
+    <col width="5.5546875" customWidth="1" style="9" min="18" max="18"/>
+    <col width="16.77734375" customWidth="1" style="9" min="19" max="19"/>
+    <col width="5" customWidth="1" style="9" min="20" max="20"/>
+    <col width="8.88671875" customWidth="1" style="9" min="21" max="22"/>
+    <col width="8.88671875" customWidth="1" style="9" min="23" max="16384"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="inlineStr">
+      <c r="A1" s="42" t="inlineStr">
         <is>
           <t>יום א</t>
         </is>
       </c>
-      <c r="B1" s="32" t="n"/>
-      <c r="C1" s="32" t="n"/>
-      <c r="D1" s="33" t="n"/>
-      <c r="E1" s="31" t="inlineStr">
+      <c r="B1" s="37" t="n"/>
+      <c r="C1" s="37" t="n"/>
+      <c r="D1" s="38" t="n"/>
+      <c r="E1" s="43" t="inlineStr">
         <is>
           <t>יום ב</t>
         </is>
       </c>
-      <c r="F1" s="32" t="n"/>
-      <c r="G1" s="32" t="n"/>
-      <c r="H1" s="33" t="n"/>
-      <c r="I1" s="27" t="inlineStr">
+      <c r="F1" s="37" t="n"/>
+      <c r="G1" s="37" t="n"/>
+      <c r="H1" s="38" t="n"/>
+      <c r="I1" s="41" t="inlineStr">
         <is>
           <t>יום ג</t>
         </is>
       </c>
-      <c r="J1" s="32" t="n"/>
-      <c r="K1" s="32" t="n"/>
-      <c r="L1" s="33" t="n"/>
-      <c r="M1" s="31" t="inlineStr">
+      <c r="J1" s="37" t="n"/>
+      <c r="K1" s="37" t="n"/>
+      <c r="L1" s="38" t="n"/>
+      <c r="M1" s="43" t="inlineStr">
         <is>
           <t>יום ד</t>
         </is>
       </c>
-      <c r="N1" s="32" t="n"/>
-      <c r="O1" s="32" t="n"/>
-      <c r="P1" s="33" t="n"/>
-      <c r="Q1" s="27" t="inlineStr">
+      <c r="N1" s="37" t="n"/>
+      <c r="O1" s="37" t="n"/>
+      <c r="P1" s="38" t="n"/>
+      <c r="Q1" s="41" t="inlineStr">
         <is>
           <t>יום ה</t>
         </is>
       </c>
-      <c r="R1" s="32" t="n"/>
-      <c r="S1" s="32" t="n"/>
-      <c r="T1" s="33" t="n"/>
-      <c r="U1" s="31" t="inlineStr">
+      <c r="R1" s="37" t="n"/>
+      <c r="S1" s="37" t="n"/>
+      <c r="T1" s="38" t="n"/>
+      <c r="U1" s="43" t="inlineStr">
         <is>
           <t>יום ו</t>
         </is>
       </c>
-      <c r="V1" s="32" t="n"/>
-      <c r="W1" s="32" t="n"/>
-      <c r="X1" s="33" t="n"/>
-      <c r="Y1" s="27" t="inlineStr">
+      <c r="V1" s="37" t="n"/>
+      <c r="W1" s="37" t="n"/>
+      <c r="X1" s="38" t="n"/>
+      <c r="Y1" s="41" t="inlineStr">
         <is>
           <t>יום שבת</t>
         </is>
       </c>
-      <c r="Z1" s="32" t="n"/>
-      <c r="AA1" s="32" t="n"/>
-      <c r="AB1" s="33" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="3" thickBot="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="Z1" s="37" t="n"/>
+      <c r="AA1" s="37" t="n"/>
+      <c r="AB1" s="38" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="11" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="G2" s="9" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="7" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="10" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="K2" s="9" t="inlineStr">
+      <c r="K2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="L2" s="7" t="inlineStr">
+      <c r="L2" s="11" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
+      <c r="M2" s="7" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="N2" s="6" t="inlineStr">
+      <c r="N2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="O2" s="9" t="inlineStr">
+      <c r="O2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="P2" s="6" t="inlineStr">
+      <c r="P2" s="7" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="Q2" s="5" t="inlineStr">
+      <c r="Q2" s="10" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="R2" s="6" t="inlineStr">
+      <c r="R2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="S2" s="9" t="inlineStr">
+      <c r="S2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="T2" s="7" t="inlineStr">
+      <c r="T2" s="11" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="U2" s="6" t="inlineStr">
+      <c r="U2" s="7" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="V2" s="6" t="inlineStr">
+      <c r="V2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="W2" s="9" t="inlineStr">
+      <c r="W2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="X2" s="6" t="inlineStr">
+      <c r="X2" s="7" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Y2" s="10" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="Z2" s="6" t="inlineStr">
+      <c r="Z2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="AA2" s="9" t="inlineStr">
+      <c r="AA2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="AB2" s="7" t="inlineStr">
+      <c r="AB2" s="11" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="43.2" customHeight="1" s="8">
+      <c r="A3" s="30" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>ת. מבני נתונים - מדמ"ח - רועי איזנשטדט</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="31" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="30" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="16" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="16" t="inlineStr">
         <is>
           <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="31" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="30" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="16" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="K3" s="8" t="inlineStr">
+      <c r="K3" s="16" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="31" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="30" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="16" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="O3" s="8" t="inlineStr">
+      <c r="O3" s="16" t="inlineStr">
         <is>
           <t>מודלים חישוביים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="31" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
+      <c r="Q3" s="30" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="16" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="S3" s="8" t="inlineStr">
+      <c r="S3" s="16" t="inlineStr">
         <is>
           <t>ת. חדוא 2 למדמח - מדמ"ח - ויקטור ניקוליאבסקי</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="31" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="W3" s="8" t="n"/>
-      <c r="Y3" s="2" t="n"/>
-      <c r="AA3" s="8" t="n"/>
-      <c r="AB3" s="4" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="U3" s="30" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="V3" s="16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="W3" s="16" t="inlineStr">
+        <is>
+          <t>קומבי</t>
+        </is>
+      </c>
+      <c r="X3" s="31" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="Y3" s="30" t="n"/>
+      <c r="Z3" s="16" t="n"/>
+      <c r="AA3" s="16" t="n"/>
+      <c r="AB3" s="31" t="n"/>
+    </row>
+    <row r="4" ht="43.2" customHeight="1" s="8">
+      <c r="A4" s="32" t="inlineStr">
         <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="13" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>חדוא 2 למדמח - מדמ"ח - ארקדי ליידרמן</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="33" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="32" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="G4" s="8" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="33" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="I4" s="32" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="13" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="K4" s="8" t="inlineStr">
+      <c r="K4" s="13" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - יעל שטיין</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="33" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="32" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="13" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="O4" s="8" t="inlineStr">
+      <c r="O4" s="13" t="inlineStr">
         <is>
           <t>מבני נתונים - מדמ"ח - סבסטיאן בן דניאל</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="33" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="Q4" s="32" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="13" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="S4" s="8" t="inlineStr">
+      <c r="S4" s="13" t="inlineStr">
         <is>
           <t>ת. מבוא למחשבים למדעי המחשב - מדמ"ח - עמית אפרים</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="33" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="W4" s="8" t="n"/>
-      <c r="Y4" s="2" t="n"/>
-      <c r="AA4" s="8" t="n"/>
-      <c r="AB4" s="4" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="U4" s="32" t="n"/>
+      <c r="V4" s="13" t="n"/>
+      <c r="W4" s="13" t="n"/>
+      <c r="X4" s="33" t="n"/>
+      <c r="Y4" s="32" t="n"/>
+      <c r="Z4" s="13" t="n"/>
+      <c r="AA4" s="13" t="n"/>
+      <c r="AB4" s="33" t="n"/>
+    </row>
+    <row r="5" ht="57.6" customHeight="1" s="8">
+      <c r="A5" s="32" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>דת האסלאם והמזרח התיכון המודרני - סוגיות יסוד - אסף רגב</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="33" t="inlineStr">
         <is>
           <t>2:30</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="32" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>ת. חדוא 2 למדמח - מדמ"ח - ויקטור ניקוליאבסקי</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="33" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I5" s="32" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="13" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
-      <c r="K5" s="8" t="inlineStr">
+      <c r="K5" s="13" t="inlineStr">
         <is>
           <t>מבוא למחשבים למדעי המחשב - מדמ"ח - אילן שלום</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="33" t="inlineStr">
         <is>
           <t>3:00</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="32" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="13" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="O5" s="8" t="inlineStr">
+      <c r="O5" s="13" t="inlineStr">
         <is>
           <t>ת. חדוא 2 למדמח - מדמ"ח - ויקטור ניקוליאבסקי</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="33" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
+      <c r="Q5" s="32" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="13" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="S5" s="8" t="inlineStr">
+      <c r="S5" s="13" t="inlineStr">
         <is>
           <t>תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="33" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="W5" s="8" t="n"/>
-      <c r="Y5" s="2" t="n"/>
-      <c r="AA5" s="8" t="n"/>
-      <c r="AB5" s="4" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" t="inlineStr">
+      <c r="U5" s="32" t="n"/>
+      <c r="V5" s="13" t="n"/>
+      <c r="W5" s="13" t="n"/>
+      <c r="X5" s="33" t="n"/>
+      <c r="Y5" s="32" t="n"/>
+      <c r="Z5" s="13" t="n"/>
+      <c r="AA5" s="13" t="n"/>
+      <c r="AB5" s="33" t="n"/>
+    </row>
+    <row r="6" ht="43.2" customHeight="1" s="8">
+      <c r="A6" s="32" t="n"/>
+      <c r="B6" s="13" t="n"/>
+      <c r="C6" s="13" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="32" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="G6" s="8" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>חדוא 2 למדמח - מדמ"ח - ארקדי ליידרמן</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="33" t="inlineStr">
         <is>
           <t>3:00</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n"/>
-      <c r="K6" s="8" t="n"/>
-      <c r="L6" s="4" t="n"/>
-      <c r="M6" t="inlineStr">
+      <c r="I6" s="32" t="n"/>
+      <c r="J6" s="13" t="n"/>
+      <c r="K6" s="13" t="n"/>
+      <c r="L6" s="33" t="n"/>
+      <c r="M6" s="32" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="13" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="O6" s="8" t="inlineStr">
+      <c r="O6" s="13" t="inlineStr">
         <is>
           <t>הגדת עבודה 5 בחדוא</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="33" t="inlineStr">
         <is>
           <t>0:30</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="Q6" s="32" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="13" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="S6" s="8" t="inlineStr">
+      <c r="S6" s="13" t="inlineStr">
         <is>
           <t>ת. תכנות מערכות - מדמ"ח - מרינה סדצקי</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="33" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="W6" s="8" t="n"/>
-      <c r="Y6" s="2" t="n"/>
-      <c r="AA6" s="8" t="n"/>
-      <c r="AB6" s="4" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" t="inlineStr">
+      <c r="U6" s="32" t="n"/>
+      <c r="V6" s="13" t="n"/>
+      <c r="W6" s="13" t="n"/>
+      <c r="X6" s="33" t="n"/>
+      <c r="Y6" s="32" t="n"/>
+      <c r="Z6" s="13" t="n"/>
+      <c r="AA6" s="13" t="n"/>
+      <c r="AB6" s="33" t="n"/>
+    </row>
+    <row r="7" ht="57.6" customHeight="1" s="8">
+      <c r="A7" s="32" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="32" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="G7" s="8" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - שמעון רגב</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="33" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="I7" s="2" t="n"/>
-      <c r="K7" s="8" t="n"/>
-      <c r="L7" s="4" t="n"/>
-      <c r="M7" t="inlineStr">
+      <c r="I7" s="32" t="n"/>
+      <c r="J7" s="13" t="n"/>
+      <c r="K7" s="13" t="n"/>
+      <c r="L7" s="33" t="n"/>
+      <c r="M7" s="32" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="13" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="O7" s="8" t="inlineStr">
+      <c r="O7" s="13" t="inlineStr">
         <is>
           <t>חדוא 2 למדמח - מדמ"ח - ארקדי ליידרמן</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" s="33" t="inlineStr">
         <is>
           <t>3:00</t>
         </is>
       </c>
-      <c r="Q7" s="2" t="n"/>
-      <c r="S7" s="8" t="n"/>
-      <c r="T7" s="4" t="n"/>
-      <c r="W7" s="8" t="n"/>
-      <c r="Y7" s="2" t="n"/>
-      <c r="AA7" s="8" t="n"/>
-      <c r="AB7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="G8" s="8" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="K8" s="8" t="n"/>
-      <c r="L8" s="4" t="n"/>
-      <c r="M8" t="inlineStr">
+      <c r="Q7" s="32" t="n"/>
+      <c r="R7" s="13" t="n"/>
+      <c r="S7" s="13" t="n"/>
+      <c r="T7" s="33" t="n"/>
+      <c r="U7" s="32" t="n"/>
+      <c r="V7" s="13" t="n"/>
+      <c r="W7" s="13" t="n"/>
+      <c r="X7" s="33" t="n"/>
+      <c r="Y7" s="32" t="n"/>
+      <c r="Z7" s="13" t="n"/>
+      <c r="AA7" s="13" t="n"/>
+      <c r="AB7" s="33" t="n"/>
+    </row>
+    <row r="8" ht="57.6" customHeight="1" s="8">
+      <c r="A8" s="32" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="32" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="33" t="n"/>
+      <c r="I8" s="32" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="13" t="n"/>
+      <c r="L8" s="33" t="n"/>
+      <c r="M8" s="32" t="inlineStr">
         <is>
           <t>18:45</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="13" t="inlineStr">
         <is>
           <t>20:45</t>
         </is>
       </c>
-      <c r="O8" s="8" t="inlineStr">
+      <c r="O8" s="13" t="inlineStr">
         <is>
           <t>מבנים בדידים וקומבינטוריקה - מדמ"ח - שמעון רגב</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="33" t="inlineStr">
         <is>
           <t>2:00</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="n"/>
-      <c r="S8" s="8" t="n"/>
-      <c r="T8" s="4" t="n"/>
-      <c r="W8" s="8" t="n"/>
-      <c r="Y8" s="2" t="n"/>
-      <c r="AA8" s="8" t="n"/>
-      <c r="AB8" s="4" t="n"/>
+      <c r="Q8" s="32" t="n"/>
+      <c r="R8" s="13" t="n"/>
+      <c r="S8" s="13" t="n"/>
+      <c r="T8" s="33" t="n"/>
+      <c r="U8" s="32" t="n"/>
+      <c r="V8" s="13" t="n"/>
+      <c r="W8" s="13" t="n"/>
+      <c r="X8" s="33" t="n"/>
+      <c r="Y8" s="32" t="n"/>
+      <c r="Z8" s="13" t="n"/>
+      <c r="AA8" s="13" t="n"/>
+      <c r="AB8" s="33" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="G9" s="8" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="4" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="S9" s="8" t="n"/>
-      <c r="T9" s="4" t="n"/>
-      <c r="W9" s="8" t="n"/>
-      <c r="Y9" s="2" t="n"/>
-      <c r="AA9" s="8" t="n"/>
-      <c r="AB9" s="4" t="n"/>
+      <c r="A9" s="32" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="33" t="n"/>
+      <c r="E9" s="32" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="13" t="n"/>
+      <c r="H9" s="33" t="n"/>
+      <c r="I9" s="32" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="13" t="n"/>
+      <c r="L9" s="33" t="n"/>
+      <c r="M9" s="32" t="n"/>
+      <c r="N9" s="13" t="n"/>
+      <c r="O9" s="13" t="n"/>
+      <c r="P9" s="33" t="n"/>
+      <c r="Q9" s="32" t="n"/>
+      <c r="R9" s="13" t="n"/>
+      <c r="S9" s="13" t="n"/>
+      <c r="T9" s="33" t="n"/>
+      <c r="U9" s="32" t="n"/>
+      <c r="V9" s="13" t="n"/>
+      <c r="W9" s="13" t="n"/>
+      <c r="X9" s="33" t="n"/>
+      <c r="Y9" s="32" t="n"/>
+      <c r="Z9" s="13" t="n"/>
+      <c r="AA9" s="13" t="n"/>
+      <c r="AB9" s="33" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="G10" s="8" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="K10" s="8" t="n"/>
-      <c r="L10" s="4" t="n"/>
-      <c r="O10" s="8" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="S10" s="8" t="n"/>
-      <c r="T10" s="4" t="n"/>
-      <c r="W10" s="8" t="n"/>
-      <c r="Y10" s="2" t="n"/>
-      <c r="AA10" s="8" t="n"/>
-      <c r="AB10" s="4" t="n"/>
+      <c r="A10" s="32" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="32" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="13" t="n"/>
+      <c r="H10" s="33" t="n"/>
+      <c r="I10" s="32" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="13" t="n"/>
+      <c r="L10" s="33" t="n"/>
+      <c r="M10" s="32" t="n"/>
+      <c r="N10" s="13" t="n"/>
+      <c r="O10" s="13" t="n"/>
+      <c r="P10" s="33" t="n"/>
+      <c r="Q10" s="32" t="n"/>
+      <c r="R10" s="13" t="n"/>
+      <c r="S10" s="13" t="n"/>
+      <c r="T10" s="33" t="n"/>
+      <c r="U10" s="32" t="n"/>
+      <c r="V10" s="13" t="n"/>
+      <c r="W10" s="13" t="n"/>
+      <c r="X10" s="33" t="n"/>
+      <c r="Y10" s="32" t="n"/>
+      <c r="Z10" s="13" t="n"/>
+      <c r="AA10" s="13" t="n"/>
+      <c r="AB10" s="33" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="G11" s="8" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="4" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="S11" s="8" t="n"/>
-      <c r="T11" s="4" t="n"/>
-      <c r="W11" s="8" t="n"/>
-      <c r="Y11" s="2" t="n"/>
-      <c r="AA11" s="8" t="n"/>
-      <c r="AB11" s="4" t="n"/>
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="32" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="13" t="n"/>
+      <c r="H11" s="33" t="n"/>
+      <c r="I11" s="32" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="13" t="n"/>
+      <c r="L11" s="33" t="n"/>
+      <c r="M11" s="32" t="n"/>
+      <c r="N11" s="13" t="n"/>
+      <c r="O11" s="13" t="n"/>
+      <c r="P11" s="33" t="n"/>
+      <c r="Q11" s="32" t="n"/>
+      <c r="R11" s="13" t="n"/>
+      <c r="S11" s="13" t="n"/>
+      <c r="T11" s="33" t="n"/>
+      <c r="U11" s="32" t="n"/>
+      <c r="V11" s="13" t="n"/>
+      <c r="W11" s="13" t="n"/>
+      <c r="X11" s="33" t="n"/>
+      <c r="Y11" s="32" t="n"/>
+      <c r="Z11" s="13" t="n"/>
+      <c r="AA11" s="13" t="n"/>
+      <c r="AB11" s="33" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="G12" s="8" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="K12" s="8" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="O12" s="8" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="S12" s="8" t="n"/>
-      <c r="T12" s="4" t="n"/>
-      <c r="W12" s="8" t="n"/>
-      <c r="Y12" s="2" t="n"/>
-      <c r="AA12" s="8" t="n"/>
-      <c r="AB12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="G13" s="8" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="K13" s="8" t="n"/>
-      <c r="L13" s="4" t="n"/>
-      <c r="O13" s="8" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="S13" s="8" t="n"/>
-      <c r="T13" s="4" t="n"/>
-      <c r="W13" s="8" t="n"/>
-      <c r="Y13" s="2" t="n"/>
-      <c r="AA13" s="8" t="n"/>
-      <c r="AB13" s="4" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="G14" s="8" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="K14" s="8" t="n"/>
-      <c r="L14" s="4" t="n"/>
-      <c r="O14" s="8" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="S14" s="8" t="n"/>
-      <c r="T14" s="4" t="n"/>
-      <c r="W14" s="8" t="n"/>
-      <c r="Y14" s="2" t="n"/>
-      <c r="AA14" s="8" t="n"/>
-      <c r="AB14" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="G15" s="8" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="K15" s="8" t="n"/>
-      <c r="L15" s="4" t="n"/>
-      <c r="O15" s="8" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-      <c r="S15" s="8" t="n"/>
-      <c r="T15" s="4" t="n"/>
-      <c r="W15" s="8" t="n"/>
-      <c r="Y15" s="2" t="n"/>
-      <c r="AA15" s="8" t="n"/>
-      <c r="AB15" s="4" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="G16" s="8" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="K16" s="8" t="n"/>
-      <c r="L16" s="4" t="n"/>
-      <c r="O16" s="8" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="S16" s="8" t="n"/>
-      <c r="T16" s="4" t="n"/>
-      <c r="W16" s="8" t="n"/>
-      <c r="Y16" s="2" t="n"/>
-      <c r="AA16" s="8" t="n"/>
-      <c r="AB16" s="4" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="C17" s="8" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="G17" s="8" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="K17" s="8" t="n"/>
-      <c r="L17" s="4" t="n"/>
-      <c r="O17" s="8" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="S17" s="8" t="n"/>
-      <c r="T17" s="4" t="n"/>
-      <c r="W17" s="8" t="n"/>
-      <c r="Y17" s="2" t="n"/>
-      <c r="AA17" s="8" t="n"/>
-      <c r="AB17" s="4" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="G18" s="8" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="K18" s="8" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="O18" s="8" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="S18" s="8" t="n"/>
-      <c r="T18" s="4" t="n"/>
-      <c r="W18" s="8" t="n"/>
-      <c r="Y18" s="2" t="n"/>
-      <c r="AA18" s="8" t="n"/>
-      <c r="AB18" s="4" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="G19" s="8" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="K19" s="8" t="n"/>
-      <c r="L19" s="4" t="n"/>
-      <c r="O19" s="8" t="n"/>
-      <c r="Q19" s="2" t="n"/>
-      <c r="S19" s="8" t="n"/>
-      <c r="T19" s="4" t="n"/>
-      <c r="W19" s="8" t="n"/>
-      <c r="Y19" s="2" t="n"/>
-      <c r="AA19" s="8" t="n"/>
-      <c r="AB19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="G20" s="8" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="4" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="Q20" s="2" t="n"/>
-      <c r="S20" s="8" t="n"/>
-      <c r="T20" s="4" t="n"/>
-      <c r="W20" s="8" t="n"/>
-      <c r="Y20" s="2" t="n"/>
-      <c r="AA20" s="8" t="n"/>
-      <c r="AB20" s="4" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="G21" s="8" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="K21" s="8" t="n"/>
-      <c r="L21" s="4" t="n"/>
-      <c r="O21" s="8" t="n"/>
-      <c r="Q21" s="2" t="n"/>
-      <c r="S21" s="8" t="n"/>
-      <c r="T21" s="4" t="n"/>
-      <c r="W21" s="8" t="n"/>
-      <c r="Y21" s="2" t="n"/>
-      <c r="AA21" s="8" t="n"/>
-      <c r="AB21" s="4" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="G22" s="8" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="4" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="Q22" s="2" t="n"/>
-      <c r="S22" s="8" t="n"/>
-      <c r="T22" s="4" t="n"/>
-      <c r="W22" s="8" t="n"/>
-      <c r="Y22" s="2" t="n"/>
-      <c r="AA22" s="8" t="n"/>
-      <c r="AB22" s="4" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="3" thickBot="1">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="9" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="9" t="n"/>
-      <c r="H23" s="6" t="n"/>
-      <c r="I23" s="5" t="n"/>
-      <c r="J23" s="6" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="7" t="n"/>
-      <c r="M23" s="6" t="n"/>
-      <c r="N23" s="6" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="6" t="n"/>
-      <c r="Q23" s="5" t="n"/>
-      <c r="R23" s="6" t="n"/>
-      <c r="S23" s="9" t="n"/>
-      <c r="T23" s="7" t="n"/>
-      <c r="U23" s="6" t="n"/>
-      <c r="V23" s="6" t="n"/>
-      <c r="W23" s="9" t="n"/>
-      <c r="X23" s="6" t="n"/>
-      <c r="Y23" s="5" t="n"/>
-      <c r="Z23" s="6" t="n"/>
-      <c r="AA23" s="9" t="n"/>
-      <c r="AB23" s="7" t="n"/>
-    </row>
+      <c r="A12" s="32" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="33" t="n"/>
+      <c r="E12" s="32" t="n"/>
+      <c r="F12" s="13" t="n"/>
+      <c r="G12" s="13" t="n"/>
+      <c r="H12" s="33" t="n"/>
+      <c r="I12" s="32" t="n"/>
+      <c r="J12" s="13" t="n"/>
+      <c r="K12" s="13" t="n"/>
+      <c r="L12" s="33" t="n"/>
+      <c r="M12" s="32" t="n"/>
+      <c r="N12" s="13" t="n"/>
+      <c r="O12" s="13" t="n"/>
+      <c r="P12" s="33" t="n"/>
+      <c r="Q12" s="32" t="n"/>
+      <c r="R12" s="13" t="n"/>
+      <c r="S12" s="13" t="n"/>
+      <c r="T12" s="33" t="n"/>
+      <c r="U12" s="32" t="n"/>
+      <c r="V12" s="13" t="n"/>
+      <c r="W12" s="13" t="n"/>
+      <c r="X12" s="33" t="n"/>
+      <c r="Y12" s="32" t="n"/>
+      <c r="Z12" s="13" t="n"/>
+      <c r="AA12" s="13" t="n"/>
+      <c r="AB12" s="33" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A13" s="34" t="n"/>
+      <c r="B13" s="29" t="n"/>
+      <c r="C13" s="29" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="34" t="n"/>
+      <c r="F13" s="29" t="n"/>
+      <c r="G13" s="29" t="n"/>
+      <c r="H13" s="35" t="n"/>
+      <c r="I13" s="34" t="n"/>
+      <c r="J13" s="29" t="n"/>
+      <c r="K13" s="29" t="n"/>
+      <c r="L13" s="35" t="n"/>
+      <c r="M13" s="34" t="n"/>
+      <c r="N13" s="29" t="n"/>
+      <c r="O13" s="29" t="n"/>
+      <c r="P13" s="35" t="n"/>
+      <c r="Q13" s="34" t="n"/>
+      <c r="R13" s="29" t="n"/>
+      <c r="S13" s="29" t="n"/>
+      <c r="T13" s="35" t="n"/>
+      <c r="U13" s="34" t="n"/>
+      <c r="V13" s="29" t="n"/>
+      <c r="W13" s="29" t="n"/>
+      <c r="X13" s="35" t="n"/>
+      <c r="Y13" s="34" t="n"/>
+      <c r="Z13" s="29" t="n"/>
+      <c r="AA13" s="29" t="n"/>
+      <c r="AB13" s="35" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="8"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="Y1:AB1"/>
@@ -6952,593 +7020,1269 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AB1"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="5.33203125" customWidth="1" style="9" min="1" max="2"/>
+    <col width="13.6640625" customWidth="1" style="9" min="3" max="3"/>
+    <col width="6.88671875" customWidth="1" style="9" min="4" max="4"/>
+    <col width="5.21875" customWidth="1" style="9" min="5" max="5"/>
+    <col width="5" customWidth="1" style="9" min="6" max="6"/>
+    <col width="13.77734375" customWidth="1" style="9" min="7" max="7"/>
+    <col width="4.77734375" customWidth="1" style="9" min="8" max="8"/>
+    <col width="5.33203125" customWidth="1" style="9" min="9" max="10"/>
+    <col width="14.88671875" customWidth="1" style="9" min="11" max="11"/>
+    <col width="4.6640625" customWidth="1" style="9" min="12" max="12"/>
+    <col width="5.44140625" customWidth="1" style="9" min="13" max="13"/>
+    <col width="5.21875" customWidth="1" style="9" min="14" max="14"/>
+    <col width="14.6640625" customWidth="1" style="9" min="15" max="15"/>
+    <col width="4.44140625" customWidth="1" style="9" min="16" max="16"/>
+    <col width="5" customWidth="1" style="9" min="17" max="17"/>
+    <col width="5.5546875" customWidth="1" style="9" min="18" max="18"/>
+    <col width="16.77734375" customWidth="1" style="9" min="19" max="19"/>
+    <col width="5" customWidth="1" style="9" min="20" max="20"/>
+    <col width="8.88671875" customWidth="1" style="9" min="21" max="22"/>
+    <col width="8.88671875" customWidth="1" style="9" min="23" max="16384"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="inlineStr">
+      <c r="A1" s="42" t="inlineStr">
         <is>
           <t>יום א</t>
         </is>
       </c>
-      <c r="B1" s="32" t="n"/>
-      <c r="C1" s="32" t="n"/>
-      <c r="D1" s="33" t="n"/>
-      <c r="E1" s="31" t="inlineStr">
+      <c r="B1" s="37" t="n"/>
+      <c r="C1" s="37" t="n"/>
+      <c r="D1" s="38" t="n"/>
+      <c r="E1" s="43" t="inlineStr">
         <is>
           <t>יום ב</t>
         </is>
       </c>
-      <c r="F1" s="32" t="n"/>
-      <c r="G1" s="32" t="n"/>
-      <c r="H1" s="33" t="n"/>
-      <c r="I1" s="27" t="inlineStr">
+      <c r="F1" s="37" t="n"/>
+      <c r="G1" s="37" t="n"/>
+      <c r="H1" s="38" t="n"/>
+      <c r="I1" s="41" t="inlineStr">
         <is>
           <t>יום ג</t>
         </is>
       </c>
-      <c r="J1" s="32" t="n"/>
-      <c r="K1" s="32" t="n"/>
-      <c r="L1" s="33" t="n"/>
-      <c r="M1" s="31" t="inlineStr">
+      <c r="J1" s="37" t="n"/>
+      <c r="K1" s="37" t="n"/>
+      <c r="L1" s="38" t="n"/>
+      <c r="M1" s="43" t="inlineStr">
         <is>
           <t>יום ד</t>
         </is>
       </c>
-      <c r="N1" s="32" t="n"/>
-      <c r="O1" s="32" t="n"/>
-      <c r="P1" s="33" t="n"/>
-      <c r="Q1" s="27" t="inlineStr">
+      <c r="N1" s="37" t="n"/>
+      <c r="O1" s="37" t="n"/>
+      <c r="P1" s="38" t="n"/>
+      <c r="Q1" s="41" t="inlineStr">
         <is>
           <t>יום ה</t>
         </is>
       </c>
-      <c r="R1" s="32" t="n"/>
-      <c r="S1" s="32" t="n"/>
-      <c r="T1" s="33" t="n"/>
-      <c r="U1" s="31" t="inlineStr">
+      <c r="R1" s="37" t="n"/>
+      <c r="S1" s="37" t="n"/>
+      <c r="T1" s="38" t="n"/>
+      <c r="U1" s="43" t="inlineStr">
         <is>
           <t>יום ו</t>
         </is>
       </c>
-      <c r="V1" s="32" t="n"/>
-      <c r="W1" s="32" t="n"/>
-      <c r="X1" s="33" t="n"/>
-      <c r="Y1" s="27" t="inlineStr">
+      <c r="V1" s="37" t="n"/>
+      <c r="W1" s="37" t="n"/>
+      <c r="X1" s="38" t="n"/>
+      <c r="Y1" s="41" t="inlineStr">
         <is>
           <t>יום שבת</t>
         </is>
       </c>
-      <c r="Z1" s="32" t="n"/>
-      <c r="AA1" s="32" t="n"/>
-      <c r="AB1" s="33" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="3" thickBot="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="Z1" s="37" t="n"/>
+      <c r="AA1" s="37" t="n"/>
+      <c r="AB1" s="38" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="11" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="G2" s="9" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="7" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="10" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="K2" s="9" t="inlineStr">
+      <c r="K2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="L2" s="7" t="inlineStr">
+      <c r="L2" s="11" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
+      <c r="M2" s="7" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="N2" s="6" t="inlineStr">
+      <c r="N2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="O2" s="9" t="inlineStr">
+      <c r="O2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="P2" s="6" t="inlineStr">
+      <c r="P2" s="7" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="Q2" s="5" t="inlineStr">
+      <c r="Q2" s="10" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="R2" s="6" t="inlineStr">
+      <c r="R2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="S2" s="9" t="inlineStr">
+      <c r="S2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="T2" s="7" t="inlineStr">
+      <c r="T2" s="11" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="U2" s="6" t="inlineStr">
+      <c r="U2" s="7" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="V2" s="6" t="inlineStr">
+      <c r="V2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="W2" s="9" t="inlineStr">
+      <c r="W2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="X2" s="6" t="inlineStr">
+      <c r="X2" s="7" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Y2" s="10" t="inlineStr">
         <is>
           <t>FROM</t>
         </is>
       </c>
-      <c r="Z2" s="6" t="inlineStr">
+      <c r="Z2" s="7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
       </c>
-      <c r="AA2" s="9" t="inlineStr">
+      <c r="AA2" s="7" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="AB2" s="7" t="inlineStr">
+      <c r="AB2" s="11" t="inlineStr">
         <is>
           <t>LENGTH</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="C3" s="8" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="G3" s="8" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="K3" s="8" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="O3" s="8" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="S3" s="8" t="n"/>
-      <c r="T3" s="4" t="n"/>
-      <c r="W3" s="8" t="n"/>
-      <c r="Y3" s="2" t="n"/>
-      <c r="AA3" s="8" t="n"/>
-      <c r="AB3" s="4" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="C4" s="8" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="G4" s="8" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="K4" s="8" t="n"/>
-      <c r="L4" s="4" t="n"/>
-      <c r="O4" s="8" t="n"/>
-      <c r="Q4" s="2" t="n"/>
-      <c r="S4" s="8" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="W4" s="8" t="n"/>
-      <c r="Y4" s="2" t="n"/>
-      <c r="AA4" s="8" t="n"/>
-      <c r="AB4" s="4" t="n"/>
+    <row r="3" ht="28.8" customHeight="1" s="8">
+      <c r="A3" s="30" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>אסלאם</t>
+        </is>
+      </c>
+      <c r="D3" s="31" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="E3" s="30" t="n"/>
+      <c r="F3" s="16" t="n"/>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="31" t="n"/>
+      <c r="I3" s="30" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="J3" s="16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="K3" s="16" t="inlineStr">
+        <is>
+          <t>תכנות מערכות</t>
+        </is>
+      </c>
+      <c r="L3" s="31" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="M3" s="30" t="n"/>
+      <c r="N3" s="16" t="n"/>
+      <c r="O3" s="16" t="n"/>
+      <c r="P3" s="31" t="n"/>
+      <c r="Q3" s="30" t="n"/>
+      <c r="R3" s="16" t="n"/>
+      <c r="S3" s="16" t="n"/>
+      <c r="T3" s="31" t="n"/>
+      <c r="U3" s="30" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="V3" s="16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="W3" s="16" t="inlineStr">
+        <is>
+          <t>קומבי</t>
+        </is>
+      </c>
+      <c r="X3" s="31" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="Y3" s="30" t="n"/>
+      <c r="Z3" s="16" t="n"/>
+      <c r="AA3" s="16" t="n"/>
+      <c r="AB3" s="31" t="n"/>
+    </row>
+    <row r="4" ht="28.8" customHeight="1" s="8">
+      <c r="A4" s="32" t="n"/>
+      <c r="B4" s="13" t="n"/>
+      <c r="C4" s="13" t="n"/>
+      <c r="D4" s="33" t="n"/>
+      <c r="E4" s="32" t="n"/>
+      <c r="F4" s="13" t="n"/>
+      <c r="G4" s="13" t="n"/>
+      <c r="H4" s="33" t="n"/>
+      <c r="I4" s="32" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="J4" s="13" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="K4" s="13" t="inlineStr">
+        <is>
+          <t>מסע שנת השכלה</t>
+        </is>
+      </c>
+      <c r="L4" s="33" t="inlineStr">
+        <is>
+          <t>2:30</t>
+        </is>
+      </c>
+      <c r="M4" s="32" t="n"/>
+      <c r="N4" s="13" t="n"/>
+      <c r="O4" s="13" t="n"/>
+      <c r="P4" s="33" t="n"/>
+      <c r="Q4" s="32" t="n"/>
+      <c r="R4" s="13" t="n"/>
+      <c r="S4" s="13" t="n"/>
+      <c r="T4" s="33" t="n"/>
+      <c r="U4" s="32" t="n"/>
+      <c r="V4" s="13" t="n"/>
+      <c r="W4" s="13" t="n"/>
+      <c r="X4" s="33" t="n"/>
+      <c r="Y4" s="32" t="n"/>
+      <c r="Z4" s="13" t="n"/>
+      <c r="AA4" s="13" t="n"/>
+      <c r="AB4" s="33" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="C5" s="8" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="G5" s="8" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="K5" s="8" t="n"/>
-      <c r="L5" s="4" t="n"/>
-      <c r="O5" s="8" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="S5" s="8" t="n"/>
-      <c r="T5" s="4" t="n"/>
-      <c r="W5" s="8" t="n"/>
-      <c r="Y5" s="2" t="n"/>
-      <c r="AA5" s="8" t="n"/>
-      <c r="AB5" s="4" t="n"/>
+      <c r="A5" s="32" t="n"/>
+      <c r="B5" s="13" t="n"/>
+      <c r="C5" s="13" t="n"/>
+      <c r="D5" s="33" t="n"/>
+      <c r="E5" s="32" t="n"/>
+      <c r="F5" s="13" t="n"/>
+      <c r="G5" s="13" t="n"/>
+      <c r="H5" s="33" t="n"/>
+      <c r="I5" s="32" t="n"/>
+      <c r="J5" s="13" t="n"/>
+      <c r="K5" s="13" t="n"/>
+      <c r="L5" s="33" t="n"/>
+      <c r="M5" s="32" t="n"/>
+      <c r="N5" s="13" t="n"/>
+      <c r="O5" s="13" t="n"/>
+      <c r="P5" s="33" t="n"/>
+      <c r="Q5" s="32" t="n"/>
+      <c r="R5" s="13" t="n"/>
+      <c r="S5" s="13" t="n"/>
+      <c r="T5" s="33" t="n"/>
+      <c r="U5" s="32" t="n"/>
+      <c r="V5" s="13" t="n"/>
+      <c r="W5" s="13" t="n"/>
+      <c r="X5" s="33" t="n"/>
+      <c r="Y5" s="32" t="n"/>
+      <c r="Z5" s="13" t="n"/>
+      <c r="AA5" s="13" t="n"/>
+      <c r="AB5" s="33" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="G6" s="8" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="K6" s="8" t="n"/>
-      <c r="L6" s="4" t="n"/>
-      <c r="O6" s="8" t="n"/>
-      <c r="Q6" s="2" t="n"/>
-      <c r="S6" s="8" t="n"/>
-      <c r="T6" s="4" t="n"/>
-      <c r="W6" s="8" t="n"/>
-      <c r="Y6" s="2" t="n"/>
-      <c r="AA6" s="8" t="n"/>
-      <c r="AB6" s="4" t="n"/>
+      <c r="A6" s="32" t="n"/>
+      <c r="B6" s="13" t="n"/>
+      <c r="C6" s="13" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="32" t="n"/>
+      <c r="F6" s="13" t="n"/>
+      <c r="G6" s="13" t="n"/>
+      <c r="H6" s="33" t="n"/>
+      <c r="I6" s="32" t="n"/>
+      <c r="J6" s="13" t="n"/>
+      <c r="K6" s="13" t="n"/>
+      <c r="L6" s="33" t="n"/>
+      <c r="M6" s="32" t="n"/>
+      <c r="N6" s="13" t="n"/>
+      <c r="O6" s="13" t="n"/>
+      <c r="P6" s="33" t="n"/>
+      <c r="Q6" s="32" t="n"/>
+      <c r="R6" s="13" t="n"/>
+      <c r="S6" s="13" t="n"/>
+      <c r="T6" s="33" t="n"/>
+      <c r="U6" s="32" t="n"/>
+      <c r="V6" s="13" t="n"/>
+      <c r="W6" s="13" t="n"/>
+      <c r="X6" s="33" t="n"/>
+      <c r="Y6" s="32" t="n"/>
+      <c r="Z6" s="13" t="n"/>
+      <c r="AA6" s="13" t="n"/>
+      <c r="AB6" s="33" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="G7" s="8" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="K7" s="8" t="n"/>
-      <c r="L7" s="4" t="n"/>
-      <c r="O7" s="8" t="n"/>
-      <c r="Q7" s="2" t="n"/>
-      <c r="S7" s="8" t="n"/>
-      <c r="T7" s="4" t="n"/>
-      <c r="W7" s="8" t="n"/>
-      <c r="Y7" s="2" t="n"/>
-      <c r="AA7" s="8" t="n"/>
-      <c r="AB7" s="4" t="n"/>
+      <c r="A7" s="32" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="32" t="n"/>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="13" t="n"/>
+      <c r="H7" s="33" t="n"/>
+      <c r="I7" s="32" t="n"/>
+      <c r="J7" s="13" t="n"/>
+      <c r="K7" s="13" t="n"/>
+      <c r="L7" s="33" t="n"/>
+      <c r="M7" s="32" t="n"/>
+      <c r="N7" s="13" t="n"/>
+      <c r="O7" s="13" t="n"/>
+      <c r="P7" s="33" t="n"/>
+      <c r="Q7" s="32" t="n"/>
+      <c r="R7" s="13" t="n"/>
+      <c r="S7" s="13" t="n"/>
+      <c r="T7" s="33" t="n"/>
+      <c r="U7" s="32" t="n"/>
+      <c r="V7" s="13" t="n"/>
+      <c r="W7" s="13" t="n"/>
+      <c r="X7" s="33" t="n"/>
+      <c r="Y7" s="32" t="n"/>
+      <c r="Z7" s="13" t="n"/>
+      <c r="AA7" s="13" t="n"/>
+      <c r="AB7" s="33" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="G8" s="8" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="K8" s="8" t="n"/>
-      <c r="L8" s="4" t="n"/>
-      <c r="O8" s="8" t="n"/>
-      <c r="Q8" s="2" t="n"/>
-      <c r="S8" s="8" t="n"/>
-      <c r="T8" s="4" t="n"/>
-      <c r="W8" s="8" t="n"/>
-      <c r="Y8" s="2" t="n"/>
-      <c r="AA8" s="8" t="n"/>
-      <c r="AB8" s="4" t="n"/>
+      <c r="A8" s="32" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="32" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="33" t="n"/>
+      <c r="I8" s="32" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="13" t="n"/>
+      <c r="L8" s="33" t="n"/>
+      <c r="M8" s="32" t="n"/>
+      <c r="N8" s="13" t="n"/>
+      <c r="O8" s="13" t="n"/>
+      <c r="P8" s="33" t="n"/>
+      <c r="Q8" s="32" t="n"/>
+      <c r="R8" s="13" t="n"/>
+      <c r="S8" s="13" t="n"/>
+      <c r="T8" s="33" t="n"/>
+      <c r="U8" s="32" t="n"/>
+      <c r="V8" s="13" t="n"/>
+      <c r="W8" s="13" t="n"/>
+      <c r="X8" s="33" t="n"/>
+      <c r="Y8" s="32" t="n"/>
+      <c r="Z8" s="13" t="n"/>
+      <c r="AA8" s="13" t="n"/>
+      <c r="AB8" s="33" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="G9" s="8" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="4" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="S9" s="8" t="n"/>
-      <c r="T9" s="4" t="n"/>
-      <c r="W9" s="8" t="n"/>
-      <c r="Y9" s="2" t="n"/>
-      <c r="AA9" s="8" t="n"/>
-      <c r="AB9" s="4" t="n"/>
+      <c r="A9" s="32" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="33" t="n"/>
+      <c r="E9" s="32" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="13" t="n"/>
+      <c r="H9" s="33" t="n"/>
+      <c r="I9" s="32" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="13" t="n"/>
+      <c r="L9" s="33" t="n"/>
+      <c r="M9" s="32" t="n"/>
+      <c r="N9" s="13" t="n"/>
+      <c r="O9" s="13" t="n"/>
+      <c r="P9" s="33" t="n"/>
+      <c r="Q9" s="32" t="n"/>
+      <c r="R9" s="13" t="n"/>
+      <c r="S9" s="13" t="n"/>
+      <c r="T9" s="33" t="n"/>
+      <c r="U9" s="32" t="n"/>
+      <c r="V9" s="13" t="n"/>
+      <c r="W9" s="13" t="n"/>
+      <c r="X9" s="33" t="n"/>
+      <c r="Y9" s="32" t="n"/>
+      <c r="Z9" s="13" t="n"/>
+      <c r="AA9" s="13" t="n"/>
+      <c r="AB9" s="33" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="G10" s="8" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="K10" s="8" t="n"/>
-      <c r="L10" s="4" t="n"/>
-      <c r="O10" s="8" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="S10" s="8" t="n"/>
-      <c r="T10" s="4" t="n"/>
-      <c r="W10" s="8" t="n"/>
-      <c r="Y10" s="2" t="n"/>
-      <c r="AA10" s="8" t="n"/>
-      <c r="AB10" s="4" t="n"/>
+      <c r="A10" s="32" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="32" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="13" t="n"/>
+      <c r="H10" s="33" t="n"/>
+      <c r="I10" s="32" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="13" t="n"/>
+      <c r="L10" s="33" t="n"/>
+      <c r="M10" s="32" t="n"/>
+      <c r="N10" s="13" t="n"/>
+      <c r="O10" s="13" t="n"/>
+      <c r="P10" s="33" t="n"/>
+      <c r="Q10" s="32" t="n"/>
+      <c r="R10" s="13" t="n"/>
+      <c r="S10" s="13" t="n"/>
+      <c r="T10" s="33" t="n"/>
+      <c r="U10" s="32" t="n"/>
+      <c r="V10" s="13" t="n"/>
+      <c r="W10" s="13" t="n"/>
+      <c r="X10" s="33" t="n"/>
+      <c r="Y10" s="32" t="n"/>
+      <c r="Z10" s="13" t="n"/>
+      <c r="AA10" s="13" t="n"/>
+      <c r="AB10" s="33" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="G11" s="8" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="4" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="S11" s="8" t="n"/>
-      <c r="T11" s="4" t="n"/>
-      <c r="W11" s="8" t="n"/>
-      <c r="Y11" s="2" t="n"/>
-      <c r="AA11" s="8" t="n"/>
-      <c r="AB11" s="4" t="n"/>
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="32" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="13" t="n"/>
+      <c r="H11" s="33" t="n"/>
+      <c r="I11" s="32" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="13" t="n"/>
+      <c r="L11" s="33" t="n"/>
+      <c r="M11" s="32" t="n"/>
+      <c r="N11" s="13" t="n"/>
+      <c r="O11" s="13" t="n"/>
+      <c r="P11" s="33" t="n"/>
+      <c r="Q11" s="32" t="n"/>
+      <c r="R11" s="13" t="n"/>
+      <c r="S11" s="13" t="n"/>
+      <c r="T11" s="33" t="n"/>
+      <c r="U11" s="32" t="n"/>
+      <c r="V11" s="13" t="n"/>
+      <c r="W11" s="13" t="n"/>
+      <c r="X11" s="33" t="n"/>
+      <c r="Y11" s="32" t="n"/>
+      <c r="Z11" s="13" t="n"/>
+      <c r="AA11" s="13" t="n"/>
+      <c r="AB11" s="33" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="G12" s="8" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="K12" s="8" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="O12" s="8" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="S12" s="8" t="n"/>
-      <c r="T12" s="4" t="n"/>
-      <c r="W12" s="8" t="n"/>
-      <c r="Y12" s="2" t="n"/>
-      <c r="AA12" s="8" t="n"/>
-      <c r="AB12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="G13" s="8" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="K13" s="8" t="n"/>
-      <c r="L13" s="4" t="n"/>
-      <c r="O13" s="8" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="S13" s="8" t="n"/>
-      <c r="T13" s="4" t="n"/>
-      <c r="W13" s="8" t="n"/>
-      <c r="Y13" s="2" t="n"/>
-      <c r="AA13" s="8" t="n"/>
-      <c r="AB13" s="4" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="G14" s="8" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="K14" s="8" t="n"/>
-      <c r="L14" s="4" t="n"/>
-      <c r="O14" s="8" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="S14" s="8" t="n"/>
-      <c r="T14" s="4" t="n"/>
-      <c r="W14" s="8" t="n"/>
-      <c r="Y14" s="2" t="n"/>
-      <c r="AA14" s="8" t="n"/>
-      <c r="AB14" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="G15" s="8" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="K15" s="8" t="n"/>
-      <c r="L15" s="4" t="n"/>
-      <c r="O15" s="8" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-      <c r="S15" s="8" t="n"/>
-      <c r="T15" s="4" t="n"/>
-      <c r="W15" s="8" t="n"/>
-      <c r="Y15" s="2" t="n"/>
-      <c r="AA15" s="8" t="n"/>
-      <c r="AB15" s="4" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="G16" s="8" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="K16" s="8" t="n"/>
-      <c r="L16" s="4" t="n"/>
-      <c r="O16" s="8" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="S16" s="8" t="n"/>
-      <c r="T16" s="4" t="n"/>
-      <c r="W16" s="8" t="n"/>
-      <c r="Y16" s="2" t="n"/>
-      <c r="AA16" s="8" t="n"/>
-      <c r="AB16" s="4" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="C17" s="8" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="G17" s="8" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="K17" s="8" t="n"/>
-      <c r="L17" s="4" t="n"/>
-      <c r="O17" s="8" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="S17" s="8" t="n"/>
-      <c r="T17" s="4" t="n"/>
-      <c r="W17" s="8" t="n"/>
-      <c r="Y17" s="2" t="n"/>
-      <c r="AA17" s="8" t="n"/>
-      <c r="AB17" s="4" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="G18" s="8" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="K18" s="8" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="O18" s="8" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="S18" s="8" t="n"/>
-      <c r="T18" s="4" t="n"/>
-      <c r="W18" s="8" t="n"/>
-      <c r="Y18" s="2" t="n"/>
-      <c r="AA18" s="8" t="n"/>
-      <c r="AB18" s="4" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="G19" s="8" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="K19" s="8" t="n"/>
-      <c r="L19" s="4" t="n"/>
-      <c r="O19" s="8" t="n"/>
-      <c r="Q19" s="2" t="n"/>
-      <c r="S19" s="8" t="n"/>
-      <c r="T19" s="4" t="n"/>
-      <c r="W19" s="8" t="n"/>
-      <c r="Y19" s="2" t="n"/>
-      <c r="AA19" s="8" t="n"/>
-      <c r="AB19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="G20" s="8" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="4" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="Q20" s="2" t="n"/>
-      <c r="S20" s="8" t="n"/>
-      <c r="T20" s="4" t="n"/>
-      <c r="W20" s="8" t="n"/>
-      <c r="Y20" s="2" t="n"/>
-      <c r="AA20" s="8" t="n"/>
-      <c r="AB20" s="4" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="G21" s="8" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="K21" s="8" t="n"/>
-      <c r="L21" s="4" t="n"/>
-      <c r="O21" s="8" t="n"/>
-      <c r="Q21" s="2" t="n"/>
-      <c r="S21" s="8" t="n"/>
-      <c r="T21" s="4" t="n"/>
-      <c r="W21" s="8" t="n"/>
-      <c r="Y21" s="2" t="n"/>
-      <c r="AA21" s="8" t="n"/>
-      <c r="AB21" s="4" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="G22" s="8" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="4" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="Q22" s="2" t="n"/>
-      <c r="S22" s="8" t="n"/>
-      <c r="T22" s="4" t="n"/>
-      <c r="W22" s="8" t="n"/>
-      <c r="Y22" s="2" t="n"/>
-      <c r="AA22" s="8" t="n"/>
-      <c r="AB22" s="4" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="3" thickBot="1">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="9" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="6" t="n"/>
-      <c r="G23" s="9" t="n"/>
-      <c r="H23" s="6" t="n"/>
-      <c r="I23" s="5" t="n"/>
-      <c r="J23" s="6" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="7" t="n"/>
-      <c r="M23" s="6" t="n"/>
-      <c r="N23" s="6" t="n"/>
-      <c r="O23" s="9" t="n"/>
-      <c r="P23" s="6" t="n"/>
-      <c r="Q23" s="5" t="n"/>
-      <c r="R23" s="6" t="n"/>
-      <c r="S23" s="9" t="n"/>
-      <c r="T23" s="7" t="n"/>
-      <c r="U23" s="6" t="n"/>
-      <c r="V23" s="6" t="n"/>
-      <c r="W23" s="9" t="n"/>
-      <c r="X23" s="6" t="n"/>
-      <c r="Y23" s="5" t="n"/>
-      <c r="Z23" s="6" t="n"/>
-      <c r="AA23" s="9" t="n"/>
-      <c r="AB23" s="7" t="n"/>
-    </row>
+      <c r="A12" s="32" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="33" t="n"/>
+      <c r="E12" s="32" t="n"/>
+      <c r="F12" s="13" t="n"/>
+      <c r="G12" s="13" t="n"/>
+      <c r="H12" s="33" t="n"/>
+      <c r="I12" s="32" t="n"/>
+      <c r="J12" s="13" t="n"/>
+      <c r="K12" s="13" t="n"/>
+      <c r="L12" s="33" t="n"/>
+      <c r="M12" s="32" t="n"/>
+      <c r="N12" s="13" t="n"/>
+      <c r="O12" s="13" t="n"/>
+      <c r="P12" s="33" t="n"/>
+      <c r="Q12" s="32" t="n"/>
+      <c r="R12" s="13" t="n"/>
+      <c r="S12" s="13" t="n"/>
+      <c r="T12" s="33" t="n"/>
+      <c r="U12" s="32" t="n"/>
+      <c r="V12" s="13" t="n"/>
+      <c r="W12" s="13" t="n"/>
+      <c r="X12" s="33" t="n"/>
+      <c r="Y12" s="32" t="n"/>
+      <c r="Z12" s="13" t="n"/>
+      <c r="AA12" s="13" t="n"/>
+      <c r="AB12" s="33" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A13" s="34" t="n"/>
+      <c r="B13" s="29" t="n"/>
+      <c r="C13" s="29" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="34" t="n"/>
+      <c r="F13" s="29" t="n"/>
+      <c r="G13" s="29" t="n"/>
+      <c r="H13" s="35" t="n"/>
+      <c r="I13" s="34" t="n"/>
+      <c r="J13" s="29" t="n"/>
+      <c r="K13" s="29" t="n"/>
+      <c r="L13" s="35" t="n"/>
+      <c r="M13" s="34" t="n"/>
+      <c r="N13" s="29" t="n"/>
+      <c r="O13" s="29" t="n"/>
+      <c r="P13" s="35" t="n"/>
+      <c r="Q13" s="34" t="n"/>
+      <c r="R13" s="29" t="n"/>
+      <c r="S13" s="29" t="n"/>
+      <c r="T13" s="35" t="n"/>
+      <c r="U13" s="34" t="n"/>
+      <c r="V13" s="29" t="n"/>
+      <c r="W13" s="29" t="n"/>
+      <c r="X13" s="35" t="n"/>
+      <c r="Y13" s="34" t="n"/>
+      <c r="Z13" s="29" t="n"/>
+      <c r="AA13" s="29" t="n"/>
+      <c r="AB13" s="35" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="8"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="U1:X1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB13"/>
+  <sheetViews>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="5.33203125" customWidth="1" style="9" min="1" max="2"/>
+    <col width="13.6640625" customWidth="1" style="9" min="3" max="3"/>
+    <col width="6.88671875" customWidth="1" style="9" min="4" max="4"/>
+    <col width="5.21875" customWidth="1" style="9" min="5" max="5"/>
+    <col width="5" customWidth="1" style="9" min="6" max="6"/>
+    <col width="13.77734375" customWidth="1" style="9" min="7" max="7"/>
+    <col width="4.77734375" customWidth="1" style="9" min="8" max="8"/>
+    <col width="5.33203125" customWidth="1" style="9" min="9" max="10"/>
+    <col width="14.88671875" customWidth="1" style="9" min="11" max="11"/>
+    <col width="4.6640625" customWidth="1" style="9" min="12" max="12"/>
+    <col width="5.44140625" customWidth="1" style="9" min="13" max="13"/>
+    <col width="5.21875" customWidth="1" style="9" min="14" max="14"/>
+    <col width="14.6640625" customWidth="1" style="9" min="15" max="15"/>
+    <col width="4.44140625" customWidth="1" style="9" min="16" max="16"/>
+    <col width="5" customWidth="1" style="9" min="17" max="17"/>
+    <col width="5.5546875" customWidth="1" style="9" min="18" max="18"/>
+    <col width="16.77734375" customWidth="1" style="9" min="19" max="19"/>
+    <col width="5" customWidth="1" style="9" min="20" max="20"/>
+    <col width="8.88671875" customWidth="1" style="9" min="21" max="22"/>
+    <col width="8.88671875" customWidth="1" style="9" min="23" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="42" t="inlineStr">
+        <is>
+          <t>יום א</t>
+        </is>
+      </c>
+      <c r="B1" s="37" t="n"/>
+      <c r="C1" s="37" t="n"/>
+      <c r="D1" s="38" t="n"/>
+      <c r="E1" s="43" t="inlineStr">
+        <is>
+          <t>יום ב</t>
+        </is>
+      </c>
+      <c r="F1" s="37" t="n"/>
+      <c r="G1" s="37" t="n"/>
+      <c r="H1" s="38" t="n"/>
+      <c r="I1" s="41" t="inlineStr">
+        <is>
+          <t>יום ג</t>
+        </is>
+      </c>
+      <c r="J1" s="37" t="n"/>
+      <c r="K1" s="37" t="n"/>
+      <c r="L1" s="38" t="n"/>
+      <c r="M1" s="43" t="inlineStr">
+        <is>
+          <t>יום ד</t>
+        </is>
+      </c>
+      <c r="N1" s="37" t="n"/>
+      <c r="O1" s="37" t="n"/>
+      <c r="P1" s="38" t="n"/>
+      <c r="Q1" s="41" t="inlineStr">
+        <is>
+          <t>יום ה</t>
+        </is>
+      </c>
+      <c r="R1" s="37" t="n"/>
+      <c r="S1" s="37" t="n"/>
+      <c r="T1" s="38" t="n"/>
+      <c r="U1" s="43" t="inlineStr">
+        <is>
+          <t>יום ו</t>
+        </is>
+      </c>
+      <c r="V1" s="37" t="n"/>
+      <c r="W1" s="37" t="n"/>
+      <c r="X1" s="38" t="n"/>
+      <c r="Y1" s="41" t="inlineStr">
+        <is>
+          <t>יום שבת</t>
+        </is>
+      </c>
+      <c r="Z1" s="37" t="n"/>
+      <c r="AA1" s="37" t="n"/>
+      <c r="AB1" s="38" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>FROM</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr">
+        <is>
+          <t>LENGTH</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>FROM</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>LENGTH</t>
+        </is>
+      </c>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>FROM</t>
+        </is>
+      </c>
+      <c r="J2" s="7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="K2" s="7" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="L2" s="11" t="inlineStr">
+        <is>
+          <t>LENGTH</t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="inlineStr">
+        <is>
+          <t>FROM</t>
+        </is>
+      </c>
+      <c r="N2" s="7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="O2" s="7" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="P2" s="7" t="inlineStr">
+        <is>
+          <t>LENGTH</t>
+        </is>
+      </c>
+      <c r="Q2" s="10" t="inlineStr">
+        <is>
+          <t>FROM</t>
+        </is>
+      </c>
+      <c r="R2" s="7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="S2" s="7" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="T2" s="11" t="inlineStr">
+        <is>
+          <t>LENGTH</t>
+        </is>
+      </c>
+      <c r="U2" s="7" t="inlineStr">
+        <is>
+          <t>FROM</t>
+        </is>
+      </c>
+      <c r="V2" s="7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="W2" s="7" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="X2" s="7" t="inlineStr">
+        <is>
+          <t>LENGTH</t>
+        </is>
+      </c>
+      <c r="Y2" s="10" t="inlineStr">
+        <is>
+          <t>FROM</t>
+        </is>
+      </c>
+      <c r="Z2" s="7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="AA2" s="7" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="AB2" s="11" t="inlineStr">
+        <is>
+          <t>LENGTH</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="28.8" customHeight="1" s="8">
+      <c r="A3" s="30" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>אסלאם</t>
+        </is>
+      </c>
+      <c r="D3" s="31" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="E3" s="30" t="n"/>
+      <c r="F3" s="16" t="n"/>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="31" t="n"/>
+      <c r="I3" s="30" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="J3" s="16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="K3" s="16" t="inlineStr">
+        <is>
+          <t>מודלים</t>
+        </is>
+      </c>
+      <c r="L3" s="31" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="M3" s="30" t="n"/>
+      <c r="N3" s="16" t="n"/>
+      <c r="O3" s="16" t="n"/>
+      <c r="P3" s="31" t="n"/>
+      <c r="Q3" s="30" t="n"/>
+      <c r="R3" s="16" t="n"/>
+      <c r="S3" s="16" t="n"/>
+      <c r="T3" s="31" t="n"/>
+      <c r="U3" s="30" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="V3" s="16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="W3" s="16" t="inlineStr">
+        <is>
+          <t>מבוא למחשבים</t>
+        </is>
+      </c>
+      <c r="X3" s="31" t="inlineStr">
+        <is>
+          <t>3:00</t>
+        </is>
+      </c>
+      <c r="Y3" s="30" t="n"/>
+      <c r="Z3" s="16" t="n"/>
+      <c r="AA3" s="16" t="n"/>
+      <c r="AB3" s="31" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="32" t="n"/>
+      <c r="B4" s="13" t="n"/>
+      <c r="C4" s="13" t="n"/>
+      <c r="D4" s="33" t="n"/>
+      <c r="E4" s="32" t="n"/>
+      <c r="F4" s="13" t="n"/>
+      <c r="G4" s="13" t="n"/>
+      <c r="H4" s="33" t="n"/>
+      <c r="I4" s="32" t="n"/>
+      <c r="J4" s="13" t="n"/>
+      <c r="K4" s="13" t="n"/>
+      <c r="L4" s="33" t="n"/>
+      <c r="M4" s="32" t="n"/>
+      <c r="N4" s="13" t="n"/>
+      <c r="O4" s="13" t="n"/>
+      <c r="P4" s="33" t="n"/>
+      <c r="Q4" s="32" t="n"/>
+      <c r="R4" s="13" t="n"/>
+      <c r="S4" s="13" t="n"/>
+      <c r="T4" s="33" t="n"/>
+      <c r="U4" s="32" t="n"/>
+      <c r="V4" s="13" t="n"/>
+      <c r="W4" s="13" t="n"/>
+      <c r="X4" s="33" t="n"/>
+      <c r="Y4" s="32" t="n"/>
+      <c r="Z4" s="13" t="n"/>
+      <c r="AA4" s="13" t="n"/>
+      <c r="AB4" s="33" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="32" t="n"/>
+      <c r="B5" s="13" t="n"/>
+      <c r="C5" s="13" t="n"/>
+      <c r="D5" s="33" t="n"/>
+      <c r="E5" s="32" t="n"/>
+      <c r="F5" s="13" t="n"/>
+      <c r="G5" s="13" t="n"/>
+      <c r="H5" s="33" t="n"/>
+      <c r="I5" s="32" t="n"/>
+      <c r="J5" s="13" t="n"/>
+      <c r="K5" s="13" t="n"/>
+      <c r="L5" s="33" t="n"/>
+      <c r="M5" s="32" t="n"/>
+      <c r="N5" s="13" t="n"/>
+      <c r="O5" s="13" t="n"/>
+      <c r="P5" s="33" t="n"/>
+      <c r="Q5" s="32" t="n"/>
+      <c r="R5" s="13" t="n"/>
+      <c r="S5" s="13" t="n"/>
+      <c r="T5" s="33" t="n"/>
+      <c r="U5" s="32" t="n"/>
+      <c r="V5" s="13" t="n"/>
+      <c r="W5" s="13" t="n"/>
+      <c r="X5" s="33" t="n"/>
+      <c r="Y5" s="32" t="n"/>
+      <c r="Z5" s="13" t="n"/>
+      <c r="AA5" s="13" t="n"/>
+      <c r="AB5" s="33" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="32" t="n"/>
+      <c r="B6" s="13" t="n"/>
+      <c r="C6" s="13" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="32" t="n"/>
+      <c r="F6" s="13" t="n"/>
+      <c r="G6" s="13" t="n"/>
+      <c r="H6" s="33" t="n"/>
+      <c r="I6" s="32" t="n"/>
+      <c r="J6" s="13" t="n"/>
+      <c r="K6" s="13" t="n"/>
+      <c r="L6" s="33" t="n"/>
+      <c r="M6" s="32" t="n"/>
+      <c r="N6" s="13" t="n"/>
+      <c r="O6" s="13" t="n"/>
+      <c r="P6" s="33" t="n"/>
+      <c r="Q6" s="32" t="n"/>
+      <c r="R6" s="13" t="n"/>
+      <c r="S6" s="13" t="n"/>
+      <c r="T6" s="33" t="n"/>
+      <c r="U6" s="32" t="n"/>
+      <c r="V6" s="13" t="n"/>
+      <c r="W6" s="13" t="n"/>
+      <c r="X6" s="33" t="n"/>
+      <c r="Y6" s="32" t="n"/>
+      <c r="Z6" s="13" t="n"/>
+      <c r="AA6" s="13" t="n"/>
+      <c r="AB6" s="33" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="32" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="33" t="n"/>
+      <c r="E7" s="32" t="n"/>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="13" t="n"/>
+      <c r="H7" s="33" t="n"/>
+      <c r="I7" s="32" t="n"/>
+      <c r="J7" s="13" t="n"/>
+      <c r="K7" s="13" t="n"/>
+      <c r="L7" s="33" t="n"/>
+      <c r="M7" s="32" t="n"/>
+      <c r="N7" s="13" t="n"/>
+      <c r="O7" s="13" t="n"/>
+      <c r="P7" s="33" t="n"/>
+      <c r="Q7" s="32" t="n"/>
+      <c r="R7" s="13" t="n"/>
+      <c r="S7" s="13" t="n"/>
+      <c r="T7" s="33" t="n"/>
+      <c r="U7" s="32" t="n"/>
+      <c r="V7" s="13" t="n"/>
+      <c r="W7" s="13" t="n"/>
+      <c r="X7" s="33" t="n"/>
+      <c r="Y7" s="32" t="n"/>
+      <c r="Z7" s="13" t="n"/>
+      <c r="AA7" s="13" t="n"/>
+      <c r="AB7" s="33" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="32" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="33" t="n"/>
+      <c r="E8" s="32" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="33" t="n"/>
+      <c r="I8" s="32" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="13" t="n"/>
+      <c r="L8" s="33" t="n"/>
+      <c r="M8" s="32" t="n"/>
+      <c r="N8" s="13" t="n"/>
+      <c r="O8" s="13" t="n"/>
+      <c r="P8" s="33" t="n"/>
+      <c r="Q8" s="32" t="n"/>
+      <c r="R8" s="13" t="n"/>
+      <c r="S8" s="13" t="n"/>
+      <c r="T8" s="33" t="n"/>
+      <c r="U8" s="32" t="n"/>
+      <c r="V8" s="13" t="n"/>
+      <c r="W8" s="13" t="n"/>
+      <c r="X8" s="33" t="n"/>
+      <c r="Y8" s="32" t="n"/>
+      <c r="Z8" s="13" t="n"/>
+      <c r="AA8" s="13" t="n"/>
+      <c r="AB8" s="33" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="32" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="33" t="n"/>
+      <c r="E9" s="32" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="13" t="n"/>
+      <c r="H9" s="33" t="n"/>
+      <c r="I9" s="32" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="13" t="n"/>
+      <c r="L9" s="33" t="n"/>
+      <c r="M9" s="32" t="n"/>
+      <c r="N9" s="13" t="n"/>
+      <c r="O9" s="13" t="n"/>
+      <c r="P9" s="33" t="n"/>
+      <c r="Q9" s="32" t="n"/>
+      <c r="R9" s="13" t="n"/>
+      <c r="S9" s="13" t="n"/>
+      <c r="T9" s="33" t="n"/>
+      <c r="U9" s="32" t="n"/>
+      <c r="V9" s="13" t="n"/>
+      <c r="W9" s="13" t="n"/>
+      <c r="X9" s="33" t="n"/>
+      <c r="Y9" s="32" t="n"/>
+      <c r="Z9" s="13" t="n"/>
+      <c r="AA9" s="13" t="n"/>
+      <c r="AB9" s="33" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="32" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="33" t="n"/>
+      <c r="E10" s="32" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="13" t="n"/>
+      <c r="H10" s="33" t="n"/>
+      <c r="I10" s="32" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="13" t="n"/>
+      <c r="L10" s="33" t="n"/>
+      <c r="M10" s="32" t="n"/>
+      <c r="N10" s="13" t="n"/>
+      <c r="O10" s="13" t="n"/>
+      <c r="P10" s="33" t="n"/>
+      <c r="Q10" s="32" t="n"/>
+      <c r="R10" s="13" t="n"/>
+      <c r="S10" s="13" t="n"/>
+      <c r="T10" s="33" t="n"/>
+      <c r="U10" s="32" t="n"/>
+      <c r="V10" s="13" t="n"/>
+      <c r="W10" s="13" t="n"/>
+      <c r="X10" s="33" t="n"/>
+      <c r="Y10" s="32" t="n"/>
+      <c r="Z10" s="13" t="n"/>
+      <c r="AA10" s="13" t="n"/>
+      <c r="AB10" s="33" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="32" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="33" t="n"/>
+      <c r="E11" s="32" t="n"/>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="13" t="n"/>
+      <c r="H11" s="33" t="n"/>
+      <c r="I11" s="32" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="13" t="n"/>
+      <c r="L11" s="33" t="n"/>
+      <c r="M11" s="32" t="n"/>
+      <c r="N11" s="13" t="n"/>
+      <c r="O11" s="13" t="n"/>
+      <c r="P11" s="33" t="n"/>
+      <c r="Q11" s="32" t="n"/>
+      <c r="R11" s="13" t="n"/>
+      <c r="S11" s="13" t="n"/>
+      <c r="T11" s="33" t="n"/>
+      <c r="U11" s="32" t="n"/>
+      <c r="V11" s="13" t="n"/>
+      <c r="W11" s="13" t="n"/>
+      <c r="X11" s="33" t="n"/>
+      <c r="Y11" s="32" t="n"/>
+      <c r="Z11" s="13" t="n"/>
+      <c r="AA11" s="13" t="n"/>
+      <c r="AB11" s="33" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="33" t="n"/>
+      <c r="E12" s="32" t="n"/>
+      <c r="F12" s="13" t="n"/>
+      <c r="G12" s="13" t="n"/>
+      <c r="H12" s="33" t="n"/>
+      <c r="I12" s="32" t="n"/>
+      <c r="J12" s="13" t="n"/>
+      <c r="K12" s="13" t="n"/>
+      <c r="L12" s="33" t="n"/>
+      <c r="M12" s="32" t="n"/>
+      <c r="N12" s="13" t="n"/>
+      <c r="O12" s="13" t="n"/>
+      <c r="P12" s="33" t="n"/>
+      <c r="Q12" s="32" t="n"/>
+      <c r="R12" s="13" t="n"/>
+      <c r="S12" s="13" t="n"/>
+      <c r="T12" s="33" t="n"/>
+      <c r="U12" s="32" t="n"/>
+      <c r="V12" s="13" t="n"/>
+      <c r="W12" s="13" t="n"/>
+      <c r="X12" s="33" t="n"/>
+      <c r="Y12" s="32" t="n"/>
+      <c r="Z12" s="13" t="n"/>
+      <c r="AA12" s="13" t="n"/>
+      <c r="AB12" s="33" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A13" s="34" t="n"/>
+      <c r="B13" s="29" t="n"/>
+      <c r="C13" s="29" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="34" t="n"/>
+      <c r="F13" s="29" t="n"/>
+      <c r="G13" s="29" t="n"/>
+      <c r="H13" s="35" t="n"/>
+      <c r="I13" s="34" t="n"/>
+      <c r="J13" s="29" t="n"/>
+      <c r="K13" s="29" t="n"/>
+      <c r="L13" s="35" t="n"/>
+      <c r="M13" s="34" t="n"/>
+      <c r="N13" s="29" t="n"/>
+      <c r="O13" s="29" t="n"/>
+      <c r="P13" s="35" t="n"/>
+      <c r="Q13" s="34" t="n"/>
+      <c r="R13" s="29" t="n"/>
+      <c r="S13" s="29" t="n"/>
+      <c r="T13" s="35" t="n"/>
+      <c r="U13" s="34" t="n"/>
+      <c r="V13" s="29" t="n"/>
+      <c r="W13" s="29" t="n"/>
+      <c r="X13" s="35" t="n"/>
+      <c r="Y13" s="34" t="n"/>
+      <c r="Z13" s="29" t="n"/>
+      <c r="AA13" s="29" t="n"/>
+      <c r="AB13" s="35" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="8"/>
+  </sheetData>
+  <mergeCells count="7">
     <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
